--- a/申し込み書.xlsx
+++ b/申し込み書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiram\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiram\OneDrive\デスクトップ\Git\Game2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DBA8BC-DFA0-4DFC-8FAF-E8523E2E57B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8208FE5-F5C4-4A3D-B65A-CAFA08303E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
   <si>
     <t>年齢</t>
     <rPh sb="0" eb="2">
@@ -913,13 +913,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>平成１４</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>株式会社アルティ</t>
     <rPh sb="0" eb="4">
       <t>カブシキガイシャ</t>
@@ -959,31 +952,6 @@
   </si>
   <si>
     <t>Knockout City</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学校法人穴吹学園 穴吹情報デザイン専門学校</t>
-    <rPh sb="0" eb="4">
-      <t>ガッコウホウジン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>アナブキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガクエン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>アナブキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センモン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガッコウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1487,10 +1455,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>20010516@anabuki-net.nejp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0052</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1517,6 +1481,38 @@
     <rPh sb="33" eb="35">
       <t>ゴウシツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学校法人穴吹学園 穴吹ビジネス専門学校  ゲームクリエーター学科２年 </t>
+    <rPh sb="0" eb="4">
+      <t>ガッコウホウジン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アナブキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガクエン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>アナブキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センモン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20010516@anabuki-net.ne.jp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2858,6 +2854,10 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2952,6 +2952,46 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2988,6 +3028,22 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3015,6 +3071,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3039,6 +3119,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3056,19 +3144,31 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -3081,6 +3181,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3089,10 +3193,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3176,10 +3276,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3219,6 +3315,38 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="27" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3237,18 +3365,26 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -3297,146 +3433,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4920,8 +4916,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>361950</xdr:colOff>
-          <xdr:row>95</xdr:row>
-          <xdr:rowOff>207065</xdr:rowOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5636,8 +5632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CB8BB2-CD0A-407A-9BAC-CA0AA9C9EBFD}">
   <dimension ref="A1:W179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B121" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5664,51 +5660,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="146" t="s">
+      <c r="L1" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="149"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="151"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="152"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -5740,109 +5736,109 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="153" t="s">
+      <c r="H4" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="153"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
     </row>
     <row r="5" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="239" t="s">
+      <c r="B5" s="156"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="264" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="240"/>
-      <c r="F5" s="241" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="163" t="s">
+      <c r="E5" s="265"/>
+      <c r="F5" s="266" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="266"/>
+      <c r="H5" s="266"/>
+      <c r="I5" s="266"/>
+      <c r="J5" s="266"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="295">
+      <c r="M5" s="173">
         <v>19</v>
       </c>
-      <c r="N5" s="296"/>
-      <c r="O5" s="296"/>
-      <c r="P5" s="296"/>
-      <c r="Q5" s="296"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="174"/>
+      <c r="Q5" s="174"/>
       <c r="R5" s="21"/>
     </row>
     <row r="6" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="157"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="289" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="290"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="290"/>
-      <c r="H6" s="290"/>
-      <c r="I6" s="290"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="290"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="297"/>
-      <c r="N6" s="210"/>
-      <c r="O6" s="210"/>
-      <c r="P6" s="210"/>
-      <c r="Q6" s="210"/>
+      <c r="A6" s="158"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="167" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="157"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="292"/>
-      <c r="J7" s="292"/>
-      <c r="K7" s="292"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="297"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="210"/>
-      <c r="P7" s="210"/>
-      <c r="Q7" s="210"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
       <c r="R7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="157"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="291"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="292"/>
-      <c r="I8" s="292"/>
-      <c r="J8" s="292"/>
-      <c r="K8" s="292"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="112" t="s">
-        <v>81</v>
+      <c r="A8" s="158"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="112">
+        <v>2002</v>
       </c>
       <c r="N8" s="24" t="s">
         <v>63</v>
@@ -5861,146 +5857,146 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="157"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="291"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="292"/>
-      <c r="L9" s="163" t="s">
+      <c r="A9" s="158"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="295" t="s">
+      <c r="M9" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="296"/>
-      <c r="O9" s="296"/>
-      <c r="P9" s="296"/>
-      <c r="Q9" s="296"/>
-      <c r="R9" s="298"/>
+      <c r="N9" s="174"/>
+      <c r="O9" s="174"/>
+      <c r="P9" s="174"/>
+      <c r="Q9" s="174"/>
+      <c r="R9" s="189"/>
     </row>
     <row r="10" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="160"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="294"/>
-      <c r="F10" s="294"/>
-      <c r="G10" s="294"/>
-      <c r="H10" s="294"/>
-      <c r="I10" s="294"/>
-      <c r="J10" s="294"/>
-      <c r="K10" s="294"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="299"/>
-      <c r="N10" s="237"/>
-      <c r="O10" s="237"/>
-      <c r="P10" s="237"/>
-      <c r="Q10" s="237"/>
-      <c r="R10" s="300"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="191"/>
+      <c r="R10" s="192"/>
     </row>
     <row r="11" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="178" t="s">
+      <c r="A11" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="179"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="283" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="284"/>
-      <c r="F11" s="284"/>
-      <c r="G11" s="284"/>
-      <c r="H11" s="284"/>
-      <c r="I11" s="284"/>
-      <c r="J11" s="284"/>
-      <c r="K11" s="284"/>
-      <c r="L11" s="284"/>
-      <c r="M11" s="284"/>
-      <c r="N11" s="284"/>
-      <c r="O11" s="284"/>
-      <c r="P11" s="284"/>
-      <c r="Q11" s="284"/>
-      <c r="R11" s="285"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="202" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="203"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="203"/>
+      <c r="H11" s="203"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
+      <c r="L11" s="203"/>
+      <c r="M11" s="203"/>
+      <c r="N11" s="203"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="204"/>
     </row>
     <row r="12" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="181"/>
-      <c r="B12" s="182"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="286"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="287"/>
-      <c r="J12" s="287"/>
-      <c r="K12" s="287"/>
-      <c r="L12" s="287"/>
-      <c r="M12" s="287"/>
-      <c r="N12" s="287"/>
-      <c r="O12" s="287"/>
-      <c r="P12" s="287"/>
-      <c r="Q12" s="287"/>
-      <c r="R12" s="288"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="206"/>
+      <c r="G12" s="206"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="206"/>
+      <c r="J12" s="206"/>
+      <c r="K12" s="206"/>
+      <c r="L12" s="206"/>
+      <c r="M12" s="206"/>
+      <c r="N12" s="206"/>
+      <c r="O12" s="206"/>
+      <c r="P12" s="206"/>
+      <c r="Q12" s="206"/>
+      <c r="R12" s="207"/>
     </row>
     <row r="13" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="181"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="287"/>
-      <c r="I13" s="287"/>
-      <c r="J13" s="287"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="287"/>
-      <c r="M13" s="287"/>
-      <c r="N13" s="287"/>
-      <c r="O13" s="287"/>
-      <c r="P13" s="287"/>
-      <c r="Q13" s="287"/>
-      <c r="R13" s="288"/>
+      <c r="A13" s="196"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="206"/>
+      <c r="L13" s="206"/>
+      <c r="M13" s="206"/>
+      <c r="N13" s="206"/>
+      <c r="O13" s="206"/>
+      <c r="P13" s="206"/>
+      <c r="Q13" s="206"/>
+      <c r="R13" s="207"/>
     </row>
     <row r="14" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="181"/>
-      <c r="B14" s="182"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="286"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="287"/>
-      <c r="J14" s="287"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="287"/>
-      <c r="M14" s="287"/>
-      <c r="N14" s="287"/>
-      <c r="O14" s="287"/>
-      <c r="P14" s="287"/>
-      <c r="Q14" s="287"/>
-      <c r="R14" s="288"/>
+      <c r="A14" s="196"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="206"/>
+      <c r="L14" s="206"/>
+      <c r="M14" s="206"/>
+      <c r="N14" s="206"/>
+      <c r="O14" s="206"/>
+      <c r="P14" s="206"/>
+      <c r="Q14" s="206"/>
+      <c r="R14" s="207"/>
     </row>
     <row r="15" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="184"/>
-      <c r="B15" s="185"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="194"/>
-      <c r="L15" s="194"/>
+      <c r="A15" s="199"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="215"/>
+      <c r="J15" s="215"/>
+      <c r="K15" s="215"/>
+      <c r="L15" s="215"/>
       <c r="M15" s="104" t="s">
         <v>67</v>
       </c>
@@ -6015,11 +6011,11 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="187" t="s">
+      <c r="A16" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="188"/>
-      <c r="C16" s="189"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="210"/>
       <c r="D16" s="26" t="s">
         <v>5</v>
       </c>
@@ -6029,8 +6025,8 @@
       <c r="F16" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="307" t="s">
-        <v>105</v>
+      <c r="G16" s="137" t="s">
+        <v>102</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -6045,11 +6041,11 @@
       <c r="R16" s="21"/>
     </row>
     <row r="17" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="169"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="171"/>
+      <c r="A17" s="180"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="182"/>
       <c r="D17" s="277" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E17" s="278"/>
       <c r="F17" s="278"/>
@@ -6067,9 +6063,9 @@
       <c r="R17" s="279"/>
     </row>
     <row r="18" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="169"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="171"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="182"/>
       <c r="D18" s="277"/>
       <c r="E18" s="278"/>
       <c r="F18" s="278"/>
@@ -6087,9 +6083,9 @@
       <c r="R18" s="279"/>
     </row>
     <row r="19" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="169"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="171"/>
+      <c r="A19" s="180"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="182"/>
       <c r="D19" s="277"/>
       <c r="E19" s="278"/>
       <c r="F19" s="278"/>
@@ -6107,9 +6103,9 @@
       <c r="R19" s="279"/>
     </row>
     <row r="20" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="190"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="192"/>
+      <c r="A20" s="211"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="213"/>
       <c r="D20" s="280"/>
       <c r="E20" s="281"/>
       <c r="F20" s="281"/>
@@ -6127,11 +6123,11 @@
       <c r="R20" s="282"/>
     </row>
     <row r="21" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="187" t="s">
+      <c r="A21" s="208" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="188"/>
-      <c r="C21" s="189"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="210"/>
       <c r="D21" s="28"/>
       <c r="E21" s="29" t="s">
         <v>3</v>
@@ -6143,61 +6139,61 @@
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
-      <c r="M21" s="195" t="s">
+      <c r="M21" s="218" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="195"/>
-      <c r="O21" s="195"/>
-      <c r="P21" s="195"/>
-      <c r="Q21" s="195"/>
-      <c r="R21" s="196"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="218"/>
+      <c r="P21" s="218"/>
+      <c r="Q21" s="218"/>
+      <c r="R21" s="219"/>
     </row>
     <row r="22" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="169"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="171"/>
+      <c r="A22" s="180"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="182"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="303" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="303"/>
-      <c r="G22" s="303"/>
-      <c r="H22" s="303"/>
-      <c r="I22" s="303"/>
-      <c r="J22" s="303"/>
-      <c r="K22" s="303"/>
-      <c r="L22" s="303"/>
-      <c r="M22" s="197"/>
-      <c r="N22" s="197"/>
-      <c r="O22" s="197"/>
-      <c r="P22" s="197"/>
-      <c r="Q22" s="197"/>
-      <c r="R22" s="198"/>
+      <c r="E22" s="216" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="216"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="216"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="216"/>
+      <c r="K22" s="216"/>
+      <c r="L22" s="216"/>
+      <c r="M22" s="220"/>
+      <c r="N22" s="220"/>
+      <c r="O22" s="220"/>
+      <c r="P22" s="220"/>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="221"/>
     </row>
     <row r="23" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="171"/>
+      <c r="A23" s="180"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="182"/>
       <c r="D23" s="31"/>
-      <c r="E23" s="304"/>
-      <c r="F23" s="304"/>
-      <c r="G23" s="304"/>
-      <c r="H23" s="304"/>
-      <c r="I23" s="304"/>
-      <c r="J23" s="304"/>
-      <c r="K23" s="304"/>
-      <c r="L23" s="304"/>
-      <c r="M23" s="197"/>
-      <c r="N23" s="197"/>
-      <c r="O23" s="197"/>
-      <c r="P23" s="197"/>
-      <c r="Q23" s="197"/>
-      <c r="R23" s="198"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="217"/>
+      <c r="J23" s="217"/>
+      <c r="K23" s="217"/>
+      <c r="L23" s="217"/>
+      <c r="M23" s="220"/>
+      <c r="N23" s="220"/>
+      <c r="O23" s="220"/>
+      <c r="P23" s="220"/>
+      <c r="Q23" s="220"/>
+      <c r="R23" s="221"/>
     </row>
     <row r="24" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="169"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="171"/>
+      <c r="A24" s="180"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="182"/>
       <c r="D24" s="31"/>
       <c r="E24" s="29" t="s">
         <v>11</v>
@@ -6209,59 +6205,59 @@
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
-      <c r="M24" s="197"/>
-      <c r="N24" s="197"/>
-      <c r="O24" s="197"/>
-      <c r="P24" s="197"/>
-      <c r="Q24" s="197"/>
-      <c r="R24" s="198"/>
+      <c r="M24" s="220"/>
+      <c r="N24" s="220"/>
+      <c r="O24" s="220"/>
+      <c r="P24" s="220"/>
+      <c r="Q24" s="220"/>
+      <c r="R24" s="221"/>
     </row>
     <row r="25" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="169"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="171"/>
+      <c r="A25" s="180"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="182"/>
       <c r="D25" s="31"/>
-      <c r="E25" s="306" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="303"/>
-      <c r="G25" s="303"/>
-      <c r="H25" s="303"/>
-      <c r="I25" s="303"/>
-      <c r="J25" s="303"/>
-      <c r="K25" s="303"/>
-      <c r="L25" s="303"/>
-      <c r="M25" s="197"/>
-      <c r="N25" s="197"/>
-      <c r="O25" s="197"/>
-      <c r="P25" s="197"/>
-      <c r="Q25" s="197"/>
-      <c r="R25" s="198"/>
+      <c r="E25" s="275" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="216"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="216"/>
+      <c r="K25" s="216"/>
+      <c r="L25" s="216"/>
+      <c r="M25" s="220"/>
+      <c r="N25" s="220"/>
+      <c r="O25" s="220"/>
+      <c r="P25" s="220"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="221"/>
     </row>
     <row r="26" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="172"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="174"/>
+      <c r="A26" s="183"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="185"/>
       <c r="D26" s="28"/>
-      <c r="E26" s="304"/>
-      <c r="F26" s="304"/>
-      <c r="G26" s="304"/>
-      <c r="H26" s="304"/>
-      <c r="I26" s="304"/>
-      <c r="J26" s="304"/>
-      <c r="K26" s="304"/>
-      <c r="L26" s="304"/>
-      <c r="M26" s="197"/>
-      <c r="N26" s="197"/>
-      <c r="O26" s="197"/>
-      <c r="P26" s="197"/>
-      <c r="Q26" s="197"/>
-      <c r="R26" s="198"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="217"/>
+      <c r="K26" s="217"/>
+      <c r="L26" s="217"/>
+      <c r="M26" s="220"/>
+      <c r="N26" s="220"/>
+      <c r="O26" s="220"/>
+      <c r="P26" s="220"/>
+      <c r="Q26" s="220"/>
+      <c r="R26" s="221"/>
     </row>
     <row r="27" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="174"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="185"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29" t="s">
         <v>12</v>
@@ -6273,61 +6269,61 @@
       <c r="J27" s="69"/>
       <c r="K27" s="69"/>
       <c r="L27" s="69"/>
-      <c r="M27" s="197"/>
-      <c r="N27" s="197"/>
-      <c r="O27" s="197"/>
-      <c r="P27" s="197"/>
-      <c r="Q27" s="197"/>
-      <c r="R27" s="198"/>
+      <c r="M27" s="220"/>
+      <c r="N27" s="220"/>
+      <c r="O27" s="220"/>
+      <c r="P27" s="220"/>
+      <c r="Q27" s="220"/>
+      <c r="R27" s="221"/>
     </row>
     <row r="28" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="174"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="185"/>
       <c r="D28" s="31"/>
-      <c r="E28" s="303" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="303"/>
-      <c r="G28" s="303"/>
-      <c r="H28" s="303"/>
-      <c r="I28" s="303"/>
-      <c r="J28" s="303"/>
-      <c r="K28" s="303"/>
-      <c r="L28" s="303"/>
-      <c r="M28" s="197"/>
-      <c r="N28" s="197"/>
-      <c r="O28" s="197"/>
-      <c r="P28" s="197"/>
-      <c r="Q28" s="197"/>
-      <c r="R28" s="198"/>
+      <c r="E28" s="216" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="216"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="216"/>
+      <c r="L28" s="216"/>
+      <c r="M28" s="220"/>
+      <c r="N28" s="220"/>
+      <c r="O28" s="220"/>
+      <c r="P28" s="220"/>
+      <c r="Q28" s="220"/>
+      <c r="R28" s="221"/>
     </row>
     <row r="29" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="190"/>
-      <c r="B29" s="191"/>
-      <c r="C29" s="192"/>
+      <c r="A29" s="211"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="213"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="305"/>
-      <c r="F29" s="305"/>
-      <c r="G29" s="305"/>
-      <c r="H29" s="305"/>
-      <c r="I29" s="305"/>
-      <c r="J29" s="305"/>
-      <c r="K29" s="305"/>
-      <c r="L29" s="305"/>
-      <c r="M29" s="199"/>
-      <c r="N29" s="199"/>
-      <c r="O29" s="199"/>
-      <c r="P29" s="199"/>
-      <c r="Q29" s="199"/>
-      <c r="R29" s="200"/>
+      <c r="E29" s="276"/>
+      <c r="F29" s="276"/>
+      <c r="G29" s="276"/>
+      <c r="H29" s="276"/>
+      <c r="I29" s="276"/>
+      <c r="J29" s="276"/>
+      <c r="K29" s="276"/>
+      <c r="L29" s="276"/>
+      <c r="M29" s="222"/>
+      <c r="N29" s="222"/>
+      <c r="O29" s="222"/>
+      <c r="P29" s="222"/>
+      <c r="Q29" s="222"/>
+      <c r="R29" s="223"/>
     </row>
     <row r="30" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="167"/>
-      <c r="C30" s="168"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="179"/>
       <c r="D30" s="28"/>
       <c r="E30" s="29" t="s">
         <v>9</v>
@@ -6347,55 +6343,55 @@
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="169"/>
-      <c r="B31" s="170"/>
-      <c r="C31" s="171"/>
+      <c r="A31" s="180"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="182"/>
       <c r="D31" s="31"/>
-      <c r="E31" s="210" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="210"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="210"/>
-      <c r="K31" s="210"/>
-      <c r="L31" s="210"/>
-      <c r="M31" s="233" t="s">
+      <c r="E31" s="176" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="N31" s="233"/>
-      <c r="O31" s="210" t="s">
-        <v>90</v>
-      </c>
-      <c r="P31" s="210"/>
-      <c r="Q31" s="210"/>
+      <c r="N31" s="259"/>
+      <c r="O31" s="176" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" s="176"/>
+      <c r="Q31" s="176"/>
       <c r="R31" s="8"/>
     </row>
     <row r="32" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="169"/>
-      <c r="B32" s="170"/>
-      <c r="C32" s="171"/>
+      <c r="A32" s="180"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="182"/>
       <c r="D32" s="31"/>
-      <c r="E32" s="275"/>
-      <c r="F32" s="275"/>
-      <c r="G32" s="275"/>
-      <c r="H32" s="275"/>
-      <c r="I32" s="275"/>
-      <c r="J32" s="275"/>
-      <c r="K32" s="275"/>
-      <c r="L32" s="275"/>
-      <c r="M32" s="243"/>
-      <c r="N32" s="243"/>
-      <c r="O32" s="275"/>
-      <c r="P32" s="275"/>
-      <c r="Q32" s="275"/>
+      <c r="E32" s="225"/>
+      <c r="F32" s="225"/>
+      <c r="G32" s="225"/>
+      <c r="H32" s="225"/>
+      <c r="I32" s="225"/>
+      <c r="J32" s="225"/>
+      <c r="K32" s="225"/>
+      <c r="L32" s="225"/>
+      <c r="M32" s="268"/>
+      <c r="N32" s="268"/>
+      <c r="O32" s="225"/>
+      <c r="P32" s="225"/>
+      <c r="Q32" s="225"/>
       <c r="R32" s="8"/>
     </row>
     <row r="33" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="169"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="171"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="182"/>
       <c r="D33" s="31"/>
       <c r="E33" s="29" t="s">
         <v>2</v>
@@ -6415,51 +6411,51 @@
       <c r="R33" s="8"/>
     </row>
     <row r="34" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="169"/>
-      <c r="B34" s="170"/>
-      <c r="C34" s="171"/>
+      <c r="A34" s="180"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="182"/>
       <c r="D34" s="31"/>
-      <c r="E34" s="210" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="210"/>
-      <c r="G34" s="210"/>
-      <c r="H34" s="210"/>
-      <c r="I34" s="210"/>
-      <c r="J34" s="210"/>
-      <c r="K34" s="210"/>
-      <c r="L34" s="210"/>
-      <c r="M34" s="210"/>
-      <c r="N34" s="210"/>
-      <c r="O34" s="210"/>
-      <c r="P34" s="210"/>
-      <c r="Q34" s="210"/>
+      <c r="E34" s="176" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="176"/>
+      <c r="G34" s="176"/>
+      <c r="H34" s="176"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="176"/>
+      <c r="K34" s="176"/>
+      <c r="L34" s="176"/>
+      <c r="M34" s="176"/>
+      <c r="N34" s="176"/>
+      <c r="O34" s="176"/>
+      <c r="P34" s="176"/>
+      <c r="Q34" s="176"/>
       <c r="R34" s="8"/>
     </row>
     <row r="35" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="172"/>
-      <c r="B35" s="173"/>
-      <c r="C35" s="174"/>
+      <c r="A35" s="183"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="185"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="275"/>
-      <c r="F35" s="275"/>
-      <c r="G35" s="275"/>
-      <c r="H35" s="275"/>
-      <c r="I35" s="275"/>
-      <c r="J35" s="275"/>
-      <c r="K35" s="275"/>
-      <c r="L35" s="275"/>
-      <c r="M35" s="275"/>
-      <c r="N35" s="275"/>
-      <c r="O35" s="275"/>
-      <c r="P35" s="275"/>
-      <c r="Q35" s="275"/>
+      <c r="E35" s="225"/>
+      <c r="F35" s="225"/>
+      <c r="G35" s="225"/>
+      <c r="H35" s="225"/>
+      <c r="I35" s="225"/>
+      <c r="J35" s="225"/>
+      <c r="K35" s="225"/>
+      <c r="L35" s="225"/>
+      <c r="M35" s="225"/>
+      <c r="N35" s="225"/>
+      <c r="O35" s="225"/>
+      <c r="P35" s="225"/>
+      <c r="Q35" s="225"/>
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="172"/>
-      <c r="B36" s="173"/>
-      <c r="C36" s="174"/>
+      <c r="A36" s="183"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="185"/>
       <c r="D36" s="31"/>
       <c r="E36" s="29" t="s">
         <v>14</v>
@@ -6479,53 +6475,53 @@
       <c r="R36" s="8"/>
     </row>
     <row r="37" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="172"/>
-      <c r="B37" s="173"/>
-      <c r="C37" s="174"/>
+      <c r="A37" s="183"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="185"/>
       <c r="D37" s="31"/>
-      <c r="E37" s="210" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="210"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="210"/>
-      <c r="I37" s="210"/>
-      <c r="J37" s="210"/>
-      <c r="K37" s="210"/>
-      <c r="L37" s="210"/>
-      <c r="M37" s="210"/>
-      <c r="N37" s="210"/>
-      <c r="O37" s="210"/>
-      <c r="P37" s="210"/>
-      <c r="Q37" s="210"/>
+      <c r="E37" s="176" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="176"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="176"/>
+      <c r="K37" s="176"/>
+      <c r="L37" s="176"/>
+      <c r="M37" s="176"/>
+      <c r="N37" s="176"/>
+      <c r="O37" s="176"/>
+      <c r="P37" s="176"/>
+      <c r="Q37" s="176"/>
       <c r="R37" s="8"/>
     </row>
     <row r="38" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="175"/>
-      <c r="B38" s="176"/>
-      <c r="C38" s="177"/>
+      <c r="A38" s="186"/>
+      <c r="B38" s="187"/>
+      <c r="C38" s="188"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="276"/>
-      <c r="F38" s="276"/>
-      <c r="G38" s="276"/>
-      <c r="H38" s="276"/>
-      <c r="I38" s="276"/>
-      <c r="J38" s="276"/>
-      <c r="K38" s="276"/>
-      <c r="L38" s="276"/>
-      <c r="M38" s="276"/>
-      <c r="N38" s="276"/>
-      <c r="O38" s="276"/>
-      <c r="P38" s="276"/>
-      <c r="Q38" s="276"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="224"/>
+      <c r="G38" s="224"/>
+      <c r="H38" s="224"/>
+      <c r="I38" s="224"/>
+      <c r="J38" s="224"/>
+      <c r="K38" s="224"/>
+      <c r="L38" s="224"/>
+      <c r="M38" s="224"/>
+      <c r="N38" s="224"/>
+      <c r="O38" s="224"/>
+      <c r="P38" s="224"/>
+      <c r="Q38" s="224"/>
       <c r="R38" s="10"/>
     </row>
     <row r="39" spans="1:18" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="166" t="s">
+      <c r="A39" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="167"/>
-      <c r="C39" s="168"/>
+      <c r="B39" s="178"/>
+      <c r="C39" s="179"/>
       <c r="D39" s="39"/>
       <c r="E39" s="40" t="s">
         <v>17</v>
@@ -6547,9 +6543,9 @@
       <c r="R39" s="44"/>
     </row>
     <row r="40" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="169"/>
-      <c r="B40" s="170"/>
-      <c r="C40" s="171"/>
+      <c r="A40" s="180"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="182"/>
       <c r="D40" s="113"/>
       <c r="E40" s="45"/>
       <c r="F40" s="29"/>
@@ -6567,9 +6563,9 @@
       <c r="R40" s="46"/>
     </row>
     <row r="41" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="169"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="171"/>
+      <c r="A41" s="180"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="182"/>
       <c r="D41" s="113"/>
       <c r="E41" s="45" t="s">
         <v>18</v>
@@ -6585,21 +6581,21 @@
       <c r="L41" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="M41" s="210" t="s">
-        <v>82</v>
-      </c>
-      <c r="N41" s="210"/>
-      <c r="O41" s="210"/>
-      <c r="P41" s="210"/>
-      <c r="Q41" s="210"/>
+      <c r="M41" s="176" t="s">
+        <v>81</v>
+      </c>
+      <c r="N41" s="176"/>
+      <c r="O41" s="176"/>
+      <c r="P41" s="176"/>
+      <c r="Q41" s="176"/>
       <c r="R41" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="169"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="171"/>
+      <c r="A42" s="180"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="182"/>
       <c r="D42" s="113"/>
       <c r="E42" s="45"/>
       <c r="F42" s="30"/>
@@ -6617,9 +6613,9 @@
       <c r="R42" s="46"/>
     </row>
     <row r="43" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="169"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="171"/>
+      <c r="A43" s="180"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="182"/>
       <c r="D43" s="113"/>
       <c r="E43" s="45" t="s">
         <v>19</v>
@@ -6635,21 +6631,21 @@
       <c r="L43" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="210" t="s">
-        <v>83</v>
-      </c>
-      <c r="N43" s="210"/>
-      <c r="O43" s="210"/>
-      <c r="P43" s="210"/>
-      <c r="Q43" s="210"/>
+      <c r="M43" s="176" t="s">
+        <v>82</v>
+      </c>
+      <c r="N43" s="176"/>
+      <c r="O43" s="176"/>
+      <c r="P43" s="176"/>
+      <c r="Q43" s="176"/>
       <c r="R43" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="172"/>
-      <c r="B44" s="173"/>
-      <c r="C44" s="174"/>
+      <c r="A44" s="183"/>
+      <c r="B44" s="184"/>
+      <c r="C44" s="185"/>
       <c r="D44" s="114"/>
       <c r="E44" s="33"/>
       <c r="F44" s="69"/>
@@ -6667,9 +6663,9 @@
       <c r="R44" s="46"/>
     </row>
     <row r="45" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="172"/>
-      <c r="B45" s="173"/>
-      <c r="C45" s="174"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="184"/>
+      <c r="C45" s="185"/>
       <c r="D45" s="113"/>
       <c r="E45" s="45" t="s">
         <v>20</v>
@@ -6685,21 +6681,21 @@
       <c r="L45" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="M45" s="210" t="s">
-        <v>84</v>
-      </c>
-      <c r="N45" s="210"/>
-      <c r="O45" s="210"/>
-      <c r="P45" s="210"/>
-      <c r="Q45" s="210"/>
+      <c r="M45" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="N45" s="176"/>
+      <c r="O45" s="176"/>
+      <c r="P45" s="176"/>
+      <c r="Q45" s="176"/>
       <c r="R45" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="172"/>
-      <c r="B46" s="173"/>
-      <c r="C46" s="174"/>
+      <c r="A46" s="183"/>
+      <c r="B46" s="184"/>
+      <c r="C46" s="185"/>
       <c r="D46" s="113"/>
       <c r="E46" s="33"/>
       <c r="F46" s="69"/>
@@ -6717,9 +6713,9 @@
       <c r="R46" s="46"/>
     </row>
     <row r="47" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="172"/>
-      <c r="B47" s="173"/>
-      <c r="C47" s="174"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="184"/>
+      <c r="C47" s="185"/>
       <c r="D47" s="113"/>
       <c r="E47" s="45" t="s">
         <v>21</v>
@@ -6729,21 +6725,21 @@
       <c r="H47" s="69"/>
       <c r="I47" s="69"/>
       <c r="J47" s="72"/>
-      <c r="K47" s="247" t="s">
+      <c r="K47" s="272" t="s">
         <v>26</v>
       </c>
-      <c r="L47" s="248"/>
-      <c r="M47" s="248"/>
-      <c r="N47" s="248"/>
-      <c r="O47" s="248"/>
-      <c r="P47" s="248"/>
-      <c r="Q47" s="248"/>
-      <c r="R47" s="249"/>
+      <c r="L47" s="273"/>
+      <c r="M47" s="273"/>
+      <c r="N47" s="273"/>
+      <c r="O47" s="273"/>
+      <c r="P47" s="273"/>
+      <c r="Q47" s="273"/>
+      <c r="R47" s="274"/>
     </row>
     <row r="48" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="175"/>
-      <c r="B48" s="176"/>
-      <c r="C48" s="177"/>
+      <c r="A48" s="186"/>
+      <c r="B48" s="187"/>
+      <c r="C48" s="188"/>
       <c r="D48" s="115"/>
       <c r="E48" s="50"/>
       <c r="F48" s="73"/>
@@ -6761,210 +6757,210 @@
       <c r="R48" s="52"/>
     </row>
     <row r="49" spans="1:18" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="166" t="s">
+      <c r="A49" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="167"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="244" t="s">
+      <c r="B49" s="178"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="269" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="245"/>
-      <c r="F49" s="245"/>
-      <c r="G49" s="245"/>
-      <c r="H49" s="245"/>
-      <c r="I49" s="245"/>
-      <c r="J49" s="245"/>
-      <c r="K49" s="245"/>
-      <c r="L49" s="245"/>
-      <c r="M49" s="245"/>
-      <c r="N49" s="245"/>
-      <c r="O49" s="245"/>
-      <c r="P49" s="245"/>
-      <c r="Q49" s="245"/>
-      <c r="R49" s="246"/>
+      <c r="E49" s="270"/>
+      <c r="F49" s="270"/>
+      <c r="G49" s="270"/>
+      <c r="H49" s="270"/>
+      <c r="I49" s="270"/>
+      <c r="J49" s="270"/>
+      <c r="K49" s="270"/>
+      <c r="L49" s="270"/>
+      <c r="M49" s="270"/>
+      <c r="N49" s="270"/>
+      <c r="O49" s="270"/>
+      <c r="P49" s="270"/>
+      <c r="Q49" s="270"/>
+      <c r="R49" s="271"/>
     </row>
     <row r="50" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="169"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="171"/>
-      <c r="D50" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="138"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="138"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="138"/>
-      <c r="L50" s="138"/>
-      <c r="M50" s="138"/>
-      <c r="N50" s="138"/>
-      <c r="O50" s="138"/>
-      <c r="P50" s="138"/>
-      <c r="Q50" s="138"/>
-      <c r="R50" s="139"/>
+      <c r="A50" s="180"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
+      <c r="J50" s="139"/>
+      <c r="K50" s="139"/>
+      <c r="L50" s="139"/>
+      <c r="M50" s="139"/>
+      <c r="N50" s="139"/>
+      <c r="O50" s="139"/>
+      <c r="P50" s="139"/>
+      <c r="Q50" s="139"/>
+      <c r="R50" s="140"/>
     </row>
     <row r="51" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="169"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="138"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
-      <c r="J51" s="138"/>
-      <c r="K51" s="138"/>
-      <c r="L51" s="138"/>
-      <c r="M51" s="138"/>
-      <c r="N51" s="138"/>
-      <c r="O51" s="138"/>
-      <c r="P51" s="138"/>
-      <c r="Q51" s="138"/>
-      <c r="R51" s="139"/>
+      <c r="A51" s="180"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="139"/>
+      <c r="I51" s="139"/>
+      <c r="J51" s="139"/>
+      <c r="K51" s="139"/>
+      <c r="L51" s="139"/>
+      <c r="M51" s="139"/>
+      <c r="N51" s="139"/>
+      <c r="O51" s="139"/>
+      <c r="P51" s="139"/>
+      <c r="Q51" s="139"/>
+      <c r="R51" s="140"/>
     </row>
     <row r="52" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="169"/>
-      <c r="B52" s="170"/>
-      <c r="C52" s="171"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="138"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="138"/>
-      <c r="L52" s="138"/>
-      <c r="M52" s="138"/>
-      <c r="N52" s="138"/>
-      <c r="O52" s="138"/>
-      <c r="P52" s="138"/>
-      <c r="Q52" s="138"/>
-      <c r="R52" s="139"/>
+      <c r="A52" s="180"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="139"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="139"/>
+      <c r="I52" s="139"/>
+      <c r="J52" s="139"/>
+      <c r="K52" s="139"/>
+      <c r="L52" s="139"/>
+      <c r="M52" s="139"/>
+      <c r="N52" s="139"/>
+      <c r="O52" s="139"/>
+      <c r="P52" s="139"/>
+      <c r="Q52" s="139"/>
+      <c r="R52" s="140"/>
     </row>
     <row r="53" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="169"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="138"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="138"/>
-      <c r="H53" s="138"/>
-      <c r="I53" s="138"/>
-      <c r="J53" s="138"/>
-      <c r="K53" s="138"/>
-      <c r="L53" s="138"/>
-      <c r="M53" s="138"/>
-      <c r="N53" s="138"/>
-      <c r="O53" s="138"/>
-      <c r="P53" s="138"/>
-      <c r="Q53" s="138"/>
-      <c r="R53" s="139"/>
+      <c r="A53" s="180"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="139"/>
+      <c r="I53" s="139"/>
+      <c r="J53" s="139"/>
+      <c r="K53" s="139"/>
+      <c r="L53" s="139"/>
+      <c r="M53" s="139"/>
+      <c r="N53" s="139"/>
+      <c r="O53" s="139"/>
+      <c r="P53" s="139"/>
+      <c r="Q53" s="139"/>
+      <c r="R53" s="140"/>
     </row>
     <row r="54" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="172"/>
-      <c r="B54" s="173"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="138"/>
-      <c r="F54" s="138"/>
-      <c r="G54" s="138"/>
-      <c r="H54" s="138"/>
-      <c r="I54" s="138"/>
-      <c r="J54" s="138"/>
-      <c r="K54" s="138"/>
-      <c r="L54" s="138"/>
-      <c r="M54" s="138"/>
-      <c r="N54" s="138"/>
-      <c r="O54" s="138"/>
-      <c r="P54" s="138"/>
-      <c r="Q54" s="138"/>
-      <c r="R54" s="139"/>
+      <c r="A54" s="183"/>
+      <c r="B54" s="184"/>
+      <c r="C54" s="185"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="139"/>
+      <c r="I54" s="139"/>
+      <c r="J54" s="139"/>
+      <c r="K54" s="139"/>
+      <c r="L54" s="139"/>
+      <c r="M54" s="139"/>
+      <c r="N54" s="139"/>
+      <c r="O54" s="139"/>
+      <c r="P54" s="139"/>
+      <c r="Q54" s="139"/>
+      <c r="R54" s="140"/>
     </row>
     <row r="55" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="172"/>
-      <c r="B55" s="173"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="138"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="138"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="138"/>
-      <c r="J55" s="138"/>
-      <c r="K55" s="138"/>
-      <c r="L55" s="138"/>
-      <c r="M55" s="138"/>
-      <c r="N55" s="138"/>
-      <c r="O55" s="138"/>
-      <c r="P55" s="138"/>
-      <c r="Q55" s="138"/>
-      <c r="R55" s="139"/>
+      <c r="A55" s="183"/>
+      <c r="B55" s="184"/>
+      <c r="C55" s="185"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="139"/>
+      <c r="F55" s="139"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="139"/>
+      <c r="I55" s="139"/>
+      <c r="J55" s="139"/>
+      <c r="K55" s="139"/>
+      <c r="L55" s="139"/>
+      <c r="M55" s="139"/>
+      <c r="N55" s="139"/>
+      <c r="O55" s="139"/>
+      <c r="P55" s="139"/>
+      <c r="Q55" s="139"/>
+      <c r="R55" s="140"/>
     </row>
     <row r="56" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="172"/>
-      <c r="B56" s="173"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="138"/>
-      <c r="F56" s="138"/>
-      <c r="G56" s="138"/>
-      <c r="H56" s="138"/>
-      <c r="I56" s="138"/>
-      <c r="J56" s="138"/>
-      <c r="K56" s="138"/>
-      <c r="L56" s="138"/>
-      <c r="M56" s="138"/>
-      <c r="N56" s="138"/>
-      <c r="O56" s="138"/>
-      <c r="P56" s="138"/>
-      <c r="Q56" s="138"/>
-      <c r="R56" s="139"/>
+      <c r="A56" s="183"/>
+      <c r="B56" s="184"/>
+      <c r="C56" s="185"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
+      <c r="J56" s="139"/>
+      <c r="K56" s="139"/>
+      <c r="L56" s="139"/>
+      <c r="M56" s="139"/>
+      <c r="N56" s="139"/>
+      <c r="O56" s="139"/>
+      <c r="P56" s="139"/>
+      <c r="Q56" s="139"/>
+      <c r="R56" s="140"/>
     </row>
     <row r="57" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="172"/>
-      <c r="B57" s="173"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="138"/>
-      <c r="F57" s="138"/>
-      <c r="G57" s="138"/>
-      <c r="H57" s="138"/>
-      <c r="I57" s="138"/>
-      <c r="J57" s="138"/>
-      <c r="K57" s="138"/>
-      <c r="L57" s="138"/>
-      <c r="M57" s="138"/>
-      <c r="N57" s="138"/>
-      <c r="O57" s="138"/>
-      <c r="P57" s="138"/>
-      <c r="Q57" s="138"/>
-      <c r="R57" s="139"/>
+      <c r="A57" s="183"/>
+      <c r="B57" s="184"/>
+      <c r="C57" s="185"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="139"/>
+      <c r="F57" s="139"/>
+      <c r="G57" s="139"/>
+      <c r="H57" s="139"/>
+      <c r="I57" s="139"/>
+      <c r="J57" s="139"/>
+      <c r="K57" s="139"/>
+      <c r="L57" s="139"/>
+      <c r="M57" s="139"/>
+      <c r="N57" s="139"/>
+      <c r="O57" s="139"/>
+      <c r="P57" s="139"/>
+      <c r="Q57" s="139"/>
+      <c r="R57" s="140"/>
     </row>
     <row r="58" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="175"/>
-      <c r="B58" s="176"/>
-      <c r="C58" s="177"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="141"/>
-      <c r="G58" s="141"/>
-      <c r="H58" s="141"/>
-      <c r="I58" s="141"/>
-      <c r="J58" s="141"/>
-      <c r="K58" s="141"/>
-      <c r="L58" s="141"/>
-      <c r="M58" s="141"/>
-      <c r="N58" s="141"/>
-      <c r="O58" s="141"/>
-      <c r="P58" s="141"/>
-      <c r="Q58" s="141"/>
-      <c r="R58" s="142"/>
+      <c r="A58" s="186"/>
+      <c r="B58" s="187"/>
+      <c r="C58" s="188"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="142"/>
+      <c r="H58" s="142"/>
+      <c r="I58" s="142"/>
+      <c r="J58" s="142"/>
+      <c r="K58" s="142"/>
+      <c r="L58" s="142"/>
+      <c r="M58" s="142"/>
+      <c r="N58" s="142"/>
+      <c r="O58" s="142"/>
+      <c r="P58" s="142"/>
+      <c r="Q58" s="142"/>
+      <c r="R58" s="143"/>
     </row>
     <row r="59" spans="1:18" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
@@ -6987,632 +6983,632 @@
       <c r="R59" s="9"/>
     </row>
     <row r="60" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="214" t="s">
+      <c r="A60" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="215"/>
-      <c r="C60" s="215"/>
-      <c r="D60" s="215"/>
-      <c r="E60" s="215"/>
-      <c r="F60" s="215"/>
-      <c r="G60" s="215"/>
-      <c r="H60" s="215"/>
-      <c r="I60" s="215"/>
-      <c r="J60" s="215"/>
-      <c r="K60" s="215"/>
-      <c r="L60" s="215"/>
-      <c r="M60" s="215"/>
-      <c r="N60" s="215"/>
-      <c r="O60" s="215"/>
-      <c r="P60" s="215"/>
-      <c r="Q60" s="215"/>
-      <c r="R60" s="216"/>
+      <c r="B60" s="241"/>
+      <c r="C60" s="241"/>
+      <c r="D60" s="241"/>
+      <c r="E60" s="241"/>
+      <c r="F60" s="241"/>
+      <c r="G60" s="241"/>
+      <c r="H60" s="241"/>
+      <c r="I60" s="241"/>
+      <c r="J60" s="241"/>
+      <c r="K60" s="241"/>
+      <c r="L60" s="241"/>
+      <c r="M60" s="241"/>
+      <c r="N60" s="241"/>
+      <c r="O60" s="241"/>
+      <c r="P60" s="241"/>
+      <c r="Q60" s="241"/>
+      <c r="R60" s="242"/>
     </row>
     <row r="61" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="301" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" s="202"/>
-      <c r="C61" s="202"/>
-      <c r="D61" s="202"/>
-      <c r="E61" s="202"/>
-      <c r="F61" s="202"/>
-      <c r="G61" s="202"/>
-      <c r="H61" s="202"/>
-      <c r="I61" s="202"/>
-      <c r="J61" s="202"/>
-      <c r="K61" s="202"/>
-      <c r="L61" s="202"/>
-      <c r="M61" s="202"/>
-      <c r="N61" s="202"/>
-      <c r="O61" s="202"/>
-      <c r="P61" s="202"/>
-      <c r="Q61" s="202"/>
-      <c r="R61" s="203"/>
+      <c r="A61" s="226" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="227"/>
+      <c r="C61" s="227"/>
+      <c r="D61" s="227"/>
+      <c r="E61" s="227"/>
+      <c r="F61" s="227"/>
+      <c r="G61" s="227"/>
+      <c r="H61" s="227"/>
+      <c r="I61" s="227"/>
+      <c r="J61" s="227"/>
+      <c r="K61" s="227"/>
+      <c r="L61" s="227"/>
+      <c r="M61" s="227"/>
+      <c r="N61" s="227"/>
+      <c r="O61" s="227"/>
+      <c r="P61" s="227"/>
+      <c r="Q61" s="227"/>
+      <c r="R61" s="228"/>
     </row>
     <row r="62" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="201"/>
-      <c r="B62" s="202"/>
-      <c r="C62" s="202"/>
-      <c r="D62" s="202"/>
-      <c r="E62" s="202"/>
-      <c r="F62" s="202"/>
-      <c r="G62" s="202"/>
-      <c r="H62" s="202"/>
-      <c r="I62" s="202"/>
-      <c r="J62" s="202"/>
-      <c r="K62" s="202"/>
-      <c r="L62" s="202"/>
-      <c r="M62" s="202"/>
-      <c r="N62" s="202"/>
-      <c r="O62" s="202"/>
-      <c r="P62" s="202"/>
-      <c r="Q62" s="202"/>
-      <c r="R62" s="203"/>
+      <c r="A62" s="229"/>
+      <c r="B62" s="227"/>
+      <c r="C62" s="227"/>
+      <c r="D62" s="227"/>
+      <c r="E62" s="227"/>
+      <c r="F62" s="227"/>
+      <c r="G62" s="227"/>
+      <c r="H62" s="227"/>
+      <c r="I62" s="227"/>
+      <c r="J62" s="227"/>
+      <c r="K62" s="227"/>
+      <c r="L62" s="227"/>
+      <c r="M62" s="227"/>
+      <c r="N62" s="227"/>
+      <c r="O62" s="227"/>
+      <c r="P62" s="227"/>
+      <c r="Q62" s="227"/>
+      <c r="R62" s="228"/>
     </row>
     <row r="63" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="201"/>
-      <c r="B63" s="202"/>
-      <c r="C63" s="202"/>
-      <c r="D63" s="202"/>
-      <c r="E63" s="202"/>
-      <c r="F63" s="202"/>
-      <c r="G63" s="202"/>
-      <c r="H63" s="202"/>
-      <c r="I63" s="202"/>
-      <c r="J63" s="202"/>
-      <c r="K63" s="202"/>
-      <c r="L63" s="202"/>
-      <c r="M63" s="202"/>
-      <c r="N63" s="202"/>
-      <c r="O63" s="202"/>
-      <c r="P63" s="202"/>
-      <c r="Q63" s="202"/>
-      <c r="R63" s="203"/>
+      <c r="A63" s="229"/>
+      <c r="B63" s="227"/>
+      <c r="C63" s="227"/>
+      <c r="D63" s="227"/>
+      <c r="E63" s="227"/>
+      <c r="F63" s="227"/>
+      <c r="G63" s="227"/>
+      <c r="H63" s="227"/>
+      <c r="I63" s="227"/>
+      <c r="J63" s="227"/>
+      <c r="K63" s="227"/>
+      <c r="L63" s="227"/>
+      <c r="M63" s="227"/>
+      <c r="N63" s="227"/>
+      <c r="O63" s="227"/>
+      <c r="P63" s="227"/>
+      <c r="Q63" s="227"/>
+      <c r="R63" s="228"/>
     </row>
     <row r="64" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="201"/>
-      <c r="B64" s="202"/>
-      <c r="C64" s="202"/>
-      <c r="D64" s="202"/>
-      <c r="E64" s="202"/>
-      <c r="F64" s="202"/>
-      <c r="G64" s="202"/>
-      <c r="H64" s="202"/>
-      <c r="I64" s="202"/>
-      <c r="J64" s="202"/>
-      <c r="K64" s="202"/>
-      <c r="L64" s="202"/>
-      <c r="M64" s="202"/>
-      <c r="N64" s="202"/>
-      <c r="O64" s="202"/>
-      <c r="P64" s="202"/>
-      <c r="Q64" s="202"/>
-      <c r="R64" s="203"/>
+      <c r="A64" s="229"/>
+      <c r="B64" s="227"/>
+      <c r="C64" s="227"/>
+      <c r="D64" s="227"/>
+      <c r="E64" s="227"/>
+      <c r="F64" s="227"/>
+      <c r="G64" s="227"/>
+      <c r="H64" s="227"/>
+      <c r="I64" s="227"/>
+      <c r="J64" s="227"/>
+      <c r="K64" s="227"/>
+      <c r="L64" s="227"/>
+      <c r="M64" s="227"/>
+      <c r="N64" s="227"/>
+      <c r="O64" s="227"/>
+      <c r="P64" s="227"/>
+      <c r="Q64" s="227"/>
+      <c r="R64" s="228"/>
     </row>
     <row r="65" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="201"/>
-      <c r="B65" s="202"/>
-      <c r="C65" s="202"/>
-      <c r="D65" s="202"/>
-      <c r="E65" s="202"/>
-      <c r="F65" s="202"/>
-      <c r="G65" s="202"/>
-      <c r="H65" s="202"/>
-      <c r="I65" s="202"/>
-      <c r="J65" s="202"/>
-      <c r="K65" s="202"/>
-      <c r="L65" s="202"/>
-      <c r="M65" s="202"/>
-      <c r="N65" s="202"/>
-      <c r="O65" s="202"/>
-      <c r="P65" s="202"/>
-      <c r="Q65" s="202"/>
-      <c r="R65" s="203"/>
+      <c r="A65" s="229"/>
+      <c r="B65" s="227"/>
+      <c r="C65" s="227"/>
+      <c r="D65" s="227"/>
+      <c r="E65" s="227"/>
+      <c r="F65" s="227"/>
+      <c r="G65" s="227"/>
+      <c r="H65" s="227"/>
+      <c r="I65" s="227"/>
+      <c r="J65" s="227"/>
+      <c r="K65" s="227"/>
+      <c r="L65" s="227"/>
+      <c r="M65" s="227"/>
+      <c r="N65" s="227"/>
+      <c r="O65" s="227"/>
+      <c r="P65" s="227"/>
+      <c r="Q65" s="227"/>
+      <c r="R65" s="228"/>
     </row>
     <row r="66" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="201"/>
-      <c r="B66" s="202"/>
-      <c r="C66" s="202"/>
-      <c r="D66" s="202"/>
-      <c r="E66" s="202"/>
-      <c r="F66" s="202"/>
-      <c r="G66" s="202"/>
-      <c r="H66" s="202"/>
-      <c r="I66" s="202"/>
-      <c r="J66" s="202"/>
-      <c r="K66" s="202"/>
-      <c r="L66" s="202"/>
-      <c r="M66" s="202"/>
-      <c r="N66" s="202"/>
-      <c r="O66" s="202"/>
-      <c r="P66" s="202"/>
-      <c r="Q66" s="202"/>
-      <c r="R66" s="203"/>
+      <c r="A66" s="229"/>
+      <c r="B66" s="227"/>
+      <c r="C66" s="227"/>
+      <c r="D66" s="227"/>
+      <c r="E66" s="227"/>
+      <c r="F66" s="227"/>
+      <c r="G66" s="227"/>
+      <c r="H66" s="227"/>
+      <c r="I66" s="227"/>
+      <c r="J66" s="227"/>
+      <c r="K66" s="227"/>
+      <c r="L66" s="227"/>
+      <c r="M66" s="227"/>
+      <c r="N66" s="227"/>
+      <c r="O66" s="227"/>
+      <c r="P66" s="227"/>
+      <c r="Q66" s="227"/>
+      <c r="R66" s="228"/>
     </row>
     <row r="67" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="201"/>
-      <c r="B67" s="202"/>
-      <c r="C67" s="202"/>
-      <c r="D67" s="202"/>
-      <c r="E67" s="202"/>
-      <c r="F67" s="202"/>
-      <c r="G67" s="202"/>
-      <c r="H67" s="202"/>
-      <c r="I67" s="202"/>
-      <c r="J67" s="202"/>
-      <c r="K67" s="202"/>
-      <c r="L67" s="202"/>
-      <c r="M67" s="202"/>
-      <c r="N67" s="202"/>
-      <c r="O67" s="202"/>
-      <c r="P67" s="202"/>
-      <c r="Q67" s="202"/>
-      <c r="R67" s="203"/>
+      <c r="A67" s="229"/>
+      <c r="B67" s="227"/>
+      <c r="C67" s="227"/>
+      <c r="D67" s="227"/>
+      <c r="E67" s="227"/>
+      <c r="F67" s="227"/>
+      <c r="G67" s="227"/>
+      <c r="H67" s="227"/>
+      <c r="I67" s="227"/>
+      <c r="J67" s="227"/>
+      <c r="K67" s="227"/>
+      <c r="L67" s="227"/>
+      <c r="M67" s="227"/>
+      <c r="N67" s="227"/>
+      <c r="O67" s="227"/>
+      <c r="P67" s="227"/>
+      <c r="Q67" s="227"/>
+      <c r="R67" s="228"/>
     </row>
     <row r="68" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="201"/>
-      <c r="B68" s="202"/>
-      <c r="C68" s="202"/>
-      <c r="D68" s="202"/>
-      <c r="E68" s="202"/>
-      <c r="F68" s="202"/>
-      <c r="G68" s="202"/>
-      <c r="H68" s="202"/>
-      <c r="I68" s="202"/>
-      <c r="J68" s="202"/>
-      <c r="K68" s="202"/>
-      <c r="L68" s="202"/>
-      <c r="M68" s="202"/>
-      <c r="N68" s="202"/>
-      <c r="O68" s="202"/>
-      <c r="P68" s="202"/>
-      <c r="Q68" s="202"/>
-      <c r="R68" s="203"/>
+      <c r="A68" s="229"/>
+      <c r="B68" s="227"/>
+      <c r="C68" s="227"/>
+      <c r="D68" s="227"/>
+      <c r="E68" s="227"/>
+      <c r="F68" s="227"/>
+      <c r="G68" s="227"/>
+      <c r="H68" s="227"/>
+      <c r="I68" s="227"/>
+      <c r="J68" s="227"/>
+      <c r="K68" s="227"/>
+      <c r="L68" s="227"/>
+      <c r="M68" s="227"/>
+      <c r="N68" s="227"/>
+      <c r="O68" s="227"/>
+      <c r="P68" s="227"/>
+      <c r="Q68" s="227"/>
+      <c r="R68" s="228"/>
     </row>
     <row r="69" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="201"/>
-      <c r="B69" s="202"/>
-      <c r="C69" s="202"/>
-      <c r="D69" s="202"/>
-      <c r="E69" s="202"/>
-      <c r="F69" s="202"/>
-      <c r="G69" s="202"/>
-      <c r="H69" s="202"/>
-      <c r="I69" s="202"/>
-      <c r="J69" s="202"/>
-      <c r="K69" s="202"/>
-      <c r="L69" s="202"/>
-      <c r="M69" s="202"/>
-      <c r="N69" s="202"/>
-      <c r="O69" s="202"/>
-      <c r="P69" s="202"/>
-      <c r="Q69" s="202"/>
-      <c r="R69" s="203"/>
+      <c r="A69" s="229"/>
+      <c r="B69" s="227"/>
+      <c r="C69" s="227"/>
+      <c r="D69" s="227"/>
+      <c r="E69" s="227"/>
+      <c r="F69" s="227"/>
+      <c r="G69" s="227"/>
+      <c r="H69" s="227"/>
+      <c r="I69" s="227"/>
+      <c r="J69" s="227"/>
+      <c r="K69" s="227"/>
+      <c r="L69" s="227"/>
+      <c r="M69" s="227"/>
+      <c r="N69" s="227"/>
+      <c r="O69" s="227"/>
+      <c r="P69" s="227"/>
+      <c r="Q69" s="227"/>
+      <c r="R69" s="228"/>
     </row>
     <row r="70" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="201"/>
-      <c r="B70" s="202"/>
-      <c r="C70" s="202"/>
-      <c r="D70" s="202"/>
-      <c r="E70" s="202"/>
-      <c r="F70" s="202"/>
-      <c r="G70" s="202"/>
-      <c r="H70" s="202"/>
-      <c r="I70" s="202"/>
-      <c r="J70" s="202"/>
-      <c r="K70" s="202"/>
-      <c r="L70" s="202"/>
-      <c r="M70" s="202"/>
-      <c r="N70" s="202"/>
-      <c r="O70" s="202"/>
-      <c r="P70" s="202"/>
-      <c r="Q70" s="202"/>
-      <c r="R70" s="203"/>
+      <c r="A70" s="229"/>
+      <c r="B70" s="227"/>
+      <c r="C70" s="227"/>
+      <c r="D70" s="227"/>
+      <c r="E70" s="227"/>
+      <c r="F70" s="227"/>
+      <c r="G70" s="227"/>
+      <c r="H70" s="227"/>
+      <c r="I70" s="227"/>
+      <c r="J70" s="227"/>
+      <c r="K70" s="227"/>
+      <c r="L70" s="227"/>
+      <c r="M70" s="227"/>
+      <c r="N70" s="227"/>
+      <c r="O70" s="227"/>
+      <c r="P70" s="227"/>
+      <c r="Q70" s="227"/>
+      <c r="R70" s="228"/>
     </row>
     <row r="71" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="201"/>
-      <c r="B71" s="202"/>
-      <c r="C71" s="202"/>
-      <c r="D71" s="202"/>
-      <c r="E71" s="202"/>
-      <c r="F71" s="202"/>
-      <c r="G71" s="202"/>
-      <c r="H71" s="202"/>
-      <c r="I71" s="202"/>
-      <c r="J71" s="202"/>
-      <c r="K71" s="202"/>
-      <c r="L71" s="202"/>
-      <c r="M71" s="202"/>
-      <c r="N71" s="202"/>
-      <c r="O71" s="202"/>
-      <c r="P71" s="202"/>
-      <c r="Q71" s="202"/>
-      <c r="R71" s="203"/>
+      <c r="A71" s="229"/>
+      <c r="B71" s="227"/>
+      <c r="C71" s="227"/>
+      <c r="D71" s="227"/>
+      <c r="E71" s="227"/>
+      <c r="F71" s="227"/>
+      <c r="G71" s="227"/>
+      <c r="H71" s="227"/>
+      <c r="I71" s="227"/>
+      <c r="J71" s="227"/>
+      <c r="K71" s="227"/>
+      <c r="L71" s="227"/>
+      <c r="M71" s="227"/>
+      <c r="N71" s="227"/>
+      <c r="O71" s="227"/>
+      <c r="P71" s="227"/>
+      <c r="Q71" s="227"/>
+      <c r="R71" s="228"/>
     </row>
     <row r="72" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="201"/>
-      <c r="B72" s="202"/>
-      <c r="C72" s="202"/>
-      <c r="D72" s="202"/>
-      <c r="E72" s="202"/>
-      <c r="F72" s="202"/>
-      <c r="G72" s="202"/>
-      <c r="H72" s="202"/>
-      <c r="I72" s="202"/>
-      <c r="J72" s="202"/>
-      <c r="K72" s="202"/>
-      <c r="L72" s="202"/>
-      <c r="M72" s="202"/>
-      <c r="N72" s="202"/>
-      <c r="O72" s="202"/>
-      <c r="P72" s="202"/>
-      <c r="Q72" s="202"/>
-      <c r="R72" s="203"/>
+      <c r="A72" s="229"/>
+      <c r="B72" s="227"/>
+      <c r="C72" s="227"/>
+      <c r="D72" s="227"/>
+      <c r="E72" s="227"/>
+      <c r="F72" s="227"/>
+      <c r="G72" s="227"/>
+      <c r="H72" s="227"/>
+      <c r="I72" s="227"/>
+      <c r="J72" s="227"/>
+      <c r="K72" s="227"/>
+      <c r="L72" s="227"/>
+      <c r="M72" s="227"/>
+      <c r="N72" s="227"/>
+      <c r="O72" s="227"/>
+      <c r="P72" s="227"/>
+      <c r="Q72" s="227"/>
+      <c r="R72" s="228"/>
     </row>
     <row r="73" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="201"/>
-      <c r="B73" s="202"/>
-      <c r="C73" s="202"/>
-      <c r="D73" s="202"/>
-      <c r="E73" s="202"/>
-      <c r="F73" s="202"/>
-      <c r="G73" s="202"/>
-      <c r="H73" s="202"/>
-      <c r="I73" s="202"/>
-      <c r="J73" s="202"/>
-      <c r="K73" s="202"/>
-      <c r="L73" s="202"/>
-      <c r="M73" s="202"/>
-      <c r="N73" s="202"/>
-      <c r="O73" s="202"/>
-      <c r="P73" s="202"/>
-      <c r="Q73" s="202"/>
-      <c r="R73" s="203"/>
+      <c r="A73" s="229"/>
+      <c r="B73" s="227"/>
+      <c r="C73" s="227"/>
+      <c r="D73" s="227"/>
+      <c r="E73" s="227"/>
+      <c r="F73" s="227"/>
+      <c r="G73" s="227"/>
+      <c r="H73" s="227"/>
+      <c r="I73" s="227"/>
+      <c r="J73" s="227"/>
+      <c r="K73" s="227"/>
+      <c r="L73" s="227"/>
+      <c r="M73" s="227"/>
+      <c r="N73" s="227"/>
+      <c r="O73" s="227"/>
+      <c r="P73" s="227"/>
+      <c r="Q73" s="227"/>
+      <c r="R73" s="228"/>
     </row>
     <row r="74" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="204"/>
-      <c r="B74" s="205"/>
-      <c r="C74" s="205"/>
-      <c r="D74" s="205"/>
-      <c r="E74" s="205"/>
-      <c r="F74" s="205"/>
-      <c r="G74" s="205"/>
-      <c r="H74" s="205"/>
-      <c r="I74" s="205"/>
-      <c r="J74" s="205"/>
-      <c r="K74" s="205"/>
-      <c r="L74" s="205"/>
-      <c r="M74" s="205"/>
-      <c r="N74" s="205"/>
-      <c r="O74" s="205"/>
-      <c r="P74" s="205"/>
-      <c r="Q74" s="205"/>
-      <c r="R74" s="206"/>
+      <c r="A74" s="230"/>
+      <c r="B74" s="231"/>
+      <c r="C74" s="231"/>
+      <c r="D74" s="231"/>
+      <c r="E74" s="231"/>
+      <c r="F74" s="231"/>
+      <c r="G74" s="231"/>
+      <c r="H74" s="231"/>
+      <c r="I74" s="231"/>
+      <c r="J74" s="231"/>
+      <c r="K74" s="231"/>
+      <c r="L74" s="231"/>
+      <c r="M74" s="231"/>
+      <c r="N74" s="231"/>
+      <c r="O74" s="231"/>
+      <c r="P74" s="231"/>
+      <c r="Q74" s="231"/>
+      <c r="R74" s="232"/>
     </row>
     <row r="75" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="214" t="s">
+      <c r="A75" s="240" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="215"/>
-      <c r="C75" s="215"/>
-      <c r="D75" s="215"/>
-      <c r="E75" s="215"/>
-      <c r="F75" s="215"/>
-      <c r="G75" s="215"/>
-      <c r="H75" s="215"/>
-      <c r="I75" s="215"/>
-      <c r="J75" s="215"/>
-      <c r="K75" s="215"/>
-      <c r="L75" s="215"/>
-      <c r="M75" s="215"/>
-      <c r="N75" s="215"/>
-      <c r="O75" s="215"/>
-      <c r="P75" s="215"/>
-      <c r="Q75" s="215"/>
-      <c r="R75" s="216"/>
+      <c r="B75" s="241"/>
+      <c r="C75" s="241"/>
+      <c r="D75" s="241"/>
+      <c r="E75" s="241"/>
+      <c r="F75" s="241"/>
+      <c r="G75" s="241"/>
+      <c r="H75" s="241"/>
+      <c r="I75" s="241"/>
+      <c r="J75" s="241"/>
+      <c r="K75" s="241"/>
+      <c r="L75" s="241"/>
+      <c r="M75" s="241"/>
+      <c r="N75" s="241"/>
+      <c r="O75" s="241"/>
+      <c r="P75" s="241"/>
+      <c r="Q75" s="241"/>
+      <c r="R75" s="242"/>
     </row>
     <row r="76" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="273" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" s="202"/>
-      <c r="C76" s="202"/>
-      <c r="D76" s="202"/>
-      <c r="E76" s="202"/>
-      <c r="F76" s="202"/>
-      <c r="G76" s="202"/>
-      <c r="H76" s="202"/>
-      <c r="I76" s="202"/>
-      <c r="J76" s="202"/>
-      <c r="K76" s="202"/>
-      <c r="L76" s="202"/>
-      <c r="M76" s="202"/>
-      <c r="N76" s="202"/>
-      <c r="O76" s="202"/>
-      <c r="P76" s="202"/>
-      <c r="Q76" s="202"/>
-      <c r="R76" s="203"/>
+      <c r="A76" s="233" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="227"/>
+      <c r="C76" s="227"/>
+      <c r="D76" s="227"/>
+      <c r="E76" s="227"/>
+      <c r="F76" s="227"/>
+      <c r="G76" s="227"/>
+      <c r="H76" s="227"/>
+      <c r="I76" s="227"/>
+      <c r="J76" s="227"/>
+      <c r="K76" s="227"/>
+      <c r="L76" s="227"/>
+      <c r="M76" s="227"/>
+      <c r="N76" s="227"/>
+      <c r="O76" s="227"/>
+      <c r="P76" s="227"/>
+      <c r="Q76" s="227"/>
+      <c r="R76" s="228"/>
     </row>
     <row r="77" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="201"/>
-      <c r="B77" s="202"/>
-      <c r="C77" s="202"/>
-      <c r="D77" s="202"/>
-      <c r="E77" s="202"/>
-      <c r="F77" s="202"/>
-      <c r="G77" s="202"/>
-      <c r="H77" s="202"/>
-      <c r="I77" s="202"/>
-      <c r="J77" s="202"/>
-      <c r="K77" s="202"/>
-      <c r="L77" s="202"/>
-      <c r="M77" s="202"/>
-      <c r="N77" s="202"/>
-      <c r="O77" s="202"/>
-      <c r="P77" s="202"/>
-      <c r="Q77" s="202"/>
-      <c r="R77" s="203"/>
+      <c r="A77" s="229"/>
+      <c r="B77" s="227"/>
+      <c r="C77" s="227"/>
+      <c r="D77" s="227"/>
+      <c r="E77" s="227"/>
+      <c r="F77" s="227"/>
+      <c r="G77" s="227"/>
+      <c r="H77" s="227"/>
+      <c r="I77" s="227"/>
+      <c r="J77" s="227"/>
+      <c r="K77" s="227"/>
+      <c r="L77" s="227"/>
+      <c r="M77" s="227"/>
+      <c r="N77" s="227"/>
+      <c r="O77" s="227"/>
+      <c r="P77" s="227"/>
+      <c r="Q77" s="227"/>
+      <c r="R77" s="228"/>
     </row>
     <row r="78" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="201"/>
-      <c r="B78" s="202"/>
-      <c r="C78" s="202"/>
-      <c r="D78" s="202"/>
-      <c r="E78" s="202"/>
-      <c r="F78" s="202"/>
-      <c r="G78" s="202"/>
-      <c r="H78" s="202"/>
-      <c r="I78" s="202"/>
-      <c r="J78" s="202"/>
-      <c r="K78" s="202"/>
-      <c r="L78" s="202"/>
-      <c r="M78" s="202"/>
-      <c r="N78" s="202"/>
-      <c r="O78" s="202"/>
-      <c r="P78" s="202"/>
-      <c r="Q78" s="202"/>
-      <c r="R78" s="203"/>
+      <c r="A78" s="229"/>
+      <c r="B78" s="227"/>
+      <c r="C78" s="227"/>
+      <c r="D78" s="227"/>
+      <c r="E78" s="227"/>
+      <c r="F78" s="227"/>
+      <c r="G78" s="227"/>
+      <c r="H78" s="227"/>
+      <c r="I78" s="227"/>
+      <c r="J78" s="227"/>
+      <c r="K78" s="227"/>
+      <c r="L78" s="227"/>
+      <c r="M78" s="227"/>
+      <c r="N78" s="227"/>
+      <c r="O78" s="227"/>
+      <c r="P78" s="227"/>
+      <c r="Q78" s="227"/>
+      <c r="R78" s="228"/>
     </row>
     <row r="79" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="201"/>
-      <c r="B79" s="202"/>
-      <c r="C79" s="202"/>
-      <c r="D79" s="202"/>
-      <c r="E79" s="202"/>
-      <c r="F79" s="202"/>
-      <c r="G79" s="202"/>
-      <c r="H79" s="202"/>
-      <c r="I79" s="202"/>
-      <c r="J79" s="202"/>
-      <c r="K79" s="202"/>
-      <c r="L79" s="202"/>
-      <c r="M79" s="202"/>
-      <c r="N79" s="202"/>
-      <c r="O79" s="202"/>
-      <c r="P79" s="202"/>
-      <c r="Q79" s="202"/>
-      <c r="R79" s="203"/>
+      <c r="A79" s="229"/>
+      <c r="B79" s="227"/>
+      <c r="C79" s="227"/>
+      <c r="D79" s="227"/>
+      <c r="E79" s="227"/>
+      <c r="F79" s="227"/>
+      <c r="G79" s="227"/>
+      <c r="H79" s="227"/>
+      <c r="I79" s="227"/>
+      <c r="J79" s="227"/>
+      <c r="K79" s="227"/>
+      <c r="L79" s="227"/>
+      <c r="M79" s="227"/>
+      <c r="N79" s="227"/>
+      <c r="O79" s="227"/>
+      <c r="P79" s="227"/>
+      <c r="Q79" s="227"/>
+      <c r="R79" s="228"/>
     </row>
     <row r="80" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="201"/>
-      <c r="B80" s="202"/>
-      <c r="C80" s="202"/>
-      <c r="D80" s="202"/>
-      <c r="E80" s="202"/>
-      <c r="F80" s="202"/>
-      <c r="G80" s="202"/>
-      <c r="H80" s="202"/>
-      <c r="I80" s="202"/>
-      <c r="J80" s="202"/>
-      <c r="K80" s="202"/>
-      <c r="L80" s="202"/>
-      <c r="M80" s="202"/>
-      <c r="N80" s="202"/>
-      <c r="O80" s="202"/>
-      <c r="P80" s="202"/>
-      <c r="Q80" s="202"/>
-      <c r="R80" s="203"/>
+      <c r="A80" s="229"/>
+      <c r="B80" s="227"/>
+      <c r="C80" s="227"/>
+      <c r="D80" s="227"/>
+      <c r="E80" s="227"/>
+      <c r="F80" s="227"/>
+      <c r="G80" s="227"/>
+      <c r="H80" s="227"/>
+      <c r="I80" s="227"/>
+      <c r="J80" s="227"/>
+      <c r="K80" s="227"/>
+      <c r="L80" s="227"/>
+      <c r="M80" s="227"/>
+      <c r="N80" s="227"/>
+      <c r="O80" s="227"/>
+      <c r="P80" s="227"/>
+      <c r="Q80" s="227"/>
+      <c r="R80" s="228"/>
     </row>
     <row r="81" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="201"/>
-      <c r="B81" s="202"/>
-      <c r="C81" s="202"/>
-      <c r="D81" s="202"/>
-      <c r="E81" s="202"/>
-      <c r="F81" s="202"/>
-      <c r="G81" s="202"/>
-      <c r="H81" s="202"/>
-      <c r="I81" s="202"/>
-      <c r="J81" s="202"/>
-      <c r="K81" s="202"/>
-      <c r="L81" s="202"/>
-      <c r="M81" s="202"/>
-      <c r="N81" s="202"/>
-      <c r="O81" s="202"/>
-      <c r="P81" s="202"/>
-      <c r="Q81" s="202"/>
-      <c r="R81" s="203"/>
+      <c r="A81" s="229"/>
+      <c r="B81" s="227"/>
+      <c r="C81" s="227"/>
+      <c r="D81" s="227"/>
+      <c r="E81" s="227"/>
+      <c r="F81" s="227"/>
+      <c r="G81" s="227"/>
+      <c r="H81" s="227"/>
+      <c r="I81" s="227"/>
+      <c r="J81" s="227"/>
+      <c r="K81" s="227"/>
+      <c r="L81" s="227"/>
+      <c r="M81" s="227"/>
+      <c r="N81" s="227"/>
+      <c r="O81" s="227"/>
+      <c r="P81" s="227"/>
+      <c r="Q81" s="227"/>
+      <c r="R81" s="228"/>
     </row>
     <row r="82" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="201"/>
-      <c r="B82" s="202"/>
-      <c r="C82" s="202"/>
-      <c r="D82" s="202"/>
-      <c r="E82" s="202"/>
-      <c r="F82" s="202"/>
-      <c r="G82" s="202"/>
-      <c r="H82" s="202"/>
-      <c r="I82" s="202"/>
-      <c r="J82" s="202"/>
-      <c r="K82" s="202"/>
-      <c r="L82" s="202"/>
-      <c r="M82" s="202"/>
-      <c r="N82" s="202"/>
-      <c r="O82" s="202"/>
-      <c r="P82" s="202"/>
-      <c r="Q82" s="202"/>
-      <c r="R82" s="203"/>
+      <c r="A82" s="229"/>
+      <c r="B82" s="227"/>
+      <c r="C82" s="227"/>
+      <c r="D82" s="227"/>
+      <c r="E82" s="227"/>
+      <c r="F82" s="227"/>
+      <c r="G82" s="227"/>
+      <c r="H82" s="227"/>
+      <c r="I82" s="227"/>
+      <c r="J82" s="227"/>
+      <c r="K82" s="227"/>
+      <c r="L82" s="227"/>
+      <c r="M82" s="227"/>
+      <c r="N82" s="227"/>
+      <c r="O82" s="227"/>
+      <c r="P82" s="227"/>
+      <c r="Q82" s="227"/>
+      <c r="R82" s="228"/>
     </row>
     <row r="83" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="201"/>
-      <c r="B83" s="202"/>
-      <c r="C83" s="202"/>
-      <c r="D83" s="202"/>
-      <c r="E83" s="202"/>
-      <c r="F83" s="202"/>
-      <c r="G83" s="202"/>
-      <c r="H83" s="202"/>
-      <c r="I83" s="202"/>
-      <c r="J83" s="202"/>
-      <c r="K83" s="202"/>
-      <c r="L83" s="202"/>
-      <c r="M83" s="202"/>
-      <c r="N83" s="202"/>
-      <c r="O83" s="202"/>
-      <c r="P83" s="202"/>
-      <c r="Q83" s="202"/>
-      <c r="R83" s="203"/>
+      <c r="A83" s="229"/>
+      <c r="B83" s="227"/>
+      <c r="C83" s="227"/>
+      <c r="D83" s="227"/>
+      <c r="E83" s="227"/>
+      <c r="F83" s="227"/>
+      <c r="G83" s="227"/>
+      <c r="H83" s="227"/>
+      <c r="I83" s="227"/>
+      <c r="J83" s="227"/>
+      <c r="K83" s="227"/>
+      <c r="L83" s="227"/>
+      <c r="M83" s="227"/>
+      <c r="N83" s="227"/>
+      <c r="O83" s="227"/>
+      <c r="P83" s="227"/>
+      <c r="Q83" s="227"/>
+      <c r="R83" s="228"/>
     </row>
     <row r="84" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="201"/>
-      <c r="B84" s="202"/>
-      <c r="C84" s="202"/>
-      <c r="D84" s="202"/>
-      <c r="E84" s="202"/>
-      <c r="F84" s="202"/>
-      <c r="G84" s="202"/>
-      <c r="H84" s="202"/>
-      <c r="I84" s="202"/>
-      <c r="J84" s="202"/>
-      <c r="K84" s="202"/>
-      <c r="L84" s="202"/>
-      <c r="M84" s="202"/>
-      <c r="N84" s="202"/>
-      <c r="O84" s="202"/>
-      <c r="P84" s="202"/>
-      <c r="Q84" s="202"/>
-      <c r="R84" s="203"/>
+      <c r="A84" s="229"/>
+      <c r="B84" s="227"/>
+      <c r="C84" s="227"/>
+      <c r="D84" s="227"/>
+      <c r="E84" s="227"/>
+      <c r="F84" s="227"/>
+      <c r="G84" s="227"/>
+      <c r="H84" s="227"/>
+      <c r="I84" s="227"/>
+      <c r="J84" s="227"/>
+      <c r="K84" s="227"/>
+      <c r="L84" s="227"/>
+      <c r="M84" s="227"/>
+      <c r="N84" s="227"/>
+      <c r="O84" s="227"/>
+      <c r="P84" s="227"/>
+      <c r="Q84" s="227"/>
+      <c r="R84" s="228"/>
     </row>
     <row r="85" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="201"/>
-      <c r="B85" s="202"/>
-      <c r="C85" s="202"/>
-      <c r="D85" s="202"/>
-      <c r="E85" s="202"/>
-      <c r="F85" s="202"/>
-      <c r="G85" s="202"/>
-      <c r="H85" s="202"/>
-      <c r="I85" s="202"/>
-      <c r="J85" s="202"/>
-      <c r="K85" s="202"/>
-      <c r="L85" s="202"/>
-      <c r="M85" s="202"/>
-      <c r="N85" s="202"/>
-      <c r="O85" s="202"/>
-      <c r="P85" s="202"/>
-      <c r="Q85" s="202"/>
-      <c r="R85" s="203"/>
+      <c r="A85" s="229"/>
+      <c r="B85" s="227"/>
+      <c r="C85" s="227"/>
+      <c r="D85" s="227"/>
+      <c r="E85" s="227"/>
+      <c r="F85" s="227"/>
+      <c r="G85" s="227"/>
+      <c r="H85" s="227"/>
+      <c r="I85" s="227"/>
+      <c r="J85" s="227"/>
+      <c r="K85" s="227"/>
+      <c r="L85" s="227"/>
+      <c r="M85" s="227"/>
+      <c r="N85" s="227"/>
+      <c r="O85" s="227"/>
+      <c r="P85" s="227"/>
+      <c r="Q85" s="227"/>
+      <c r="R85" s="228"/>
     </row>
     <row r="86" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="201"/>
-      <c r="B86" s="202"/>
-      <c r="C86" s="202"/>
-      <c r="D86" s="202"/>
-      <c r="E86" s="202"/>
-      <c r="F86" s="202"/>
-      <c r="G86" s="202"/>
-      <c r="H86" s="202"/>
-      <c r="I86" s="202"/>
-      <c r="J86" s="202"/>
-      <c r="K86" s="202"/>
-      <c r="L86" s="202"/>
-      <c r="M86" s="202"/>
-      <c r="N86" s="202"/>
-      <c r="O86" s="202"/>
-      <c r="P86" s="202"/>
-      <c r="Q86" s="202"/>
-      <c r="R86" s="203"/>
+      <c r="A86" s="229"/>
+      <c r="B86" s="227"/>
+      <c r="C86" s="227"/>
+      <c r="D86" s="227"/>
+      <c r="E86" s="227"/>
+      <c r="F86" s="227"/>
+      <c r="G86" s="227"/>
+      <c r="H86" s="227"/>
+      <c r="I86" s="227"/>
+      <c r="J86" s="227"/>
+      <c r="K86" s="227"/>
+      <c r="L86" s="227"/>
+      <c r="M86" s="227"/>
+      <c r="N86" s="227"/>
+      <c r="O86" s="227"/>
+      <c r="P86" s="227"/>
+      <c r="Q86" s="227"/>
+      <c r="R86" s="228"/>
     </row>
     <row r="87" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="201"/>
-      <c r="B87" s="202"/>
-      <c r="C87" s="202"/>
-      <c r="D87" s="202"/>
-      <c r="E87" s="202"/>
-      <c r="F87" s="202"/>
-      <c r="G87" s="202"/>
-      <c r="H87" s="202"/>
-      <c r="I87" s="202"/>
-      <c r="J87" s="202"/>
-      <c r="K87" s="202"/>
-      <c r="L87" s="202"/>
-      <c r="M87" s="202"/>
-      <c r="N87" s="202"/>
-      <c r="O87" s="202"/>
-      <c r="P87" s="202"/>
-      <c r="Q87" s="202"/>
-      <c r="R87" s="203"/>
+      <c r="A87" s="229"/>
+      <c r="B87" s="227"/>
+      <c r="C87" s="227"/>
+      <c r="D87" s="227"/>
+      <c r="E87" s="227"/>
+      <c r="F87" s="227"/>
+      <c r="G87" s="227"/>
+      <c r="H87" s="227"/>
+      <c r="I87" s="227"/>
+      <c r="J87" s="227"/>
+      <c r="K87" s="227"/>
+      <c r="L87" s="227"/>
+      <c r="M87" s="227"/>
+      <c r="N87" s="227"/>
+      <c r="O87" s="227"/>
+      <c r="P87" s="227"/>
+      <c r="Q87" s="227"/>
+      <c r="R87" s="228"/>
     </row>
     <row r="88" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="201"/>
-      <c r="B88" s="202"/>
-      <c r="C88" s="202"/>
-      <c r="D88" s="202"/>
-      <c r="E88" s="202"/>
-      <c r="F88" s="202"/>
-      <c r="G88" s="202"/>
-      <c r="H88" s="202"/>
-      <c r="I88" s="202"/>
-      <c r="J88" s="202"/>
-      <c r="K88" s="202"/>
-      <c r="L88" s="202"/>
-      <c r="M88" s="202"/>
-      <c r="N88" s="202"/>
-      <c r="O88" s="202"/>
-      <c r="P88" s="202"/>
-      <c r="Q88" s="202"/>
-      <c r="R88" s="203"/>
+      <c r="A88" s="229"/>
+      <c r="B88" s="227"/>
+      <c r="C88" s="227"/>
+      <c r="D88" s="227"/>
+      <c r="E88" s="227"/>
+      <c r="F88" s="227"/>
+      <c r="G88" s="227"/>
+      <c r="H88" s="227"/>
+      <c r="I88" s="227"/>
+      <c r="J88" s="227"/>
+      <c r="K88" s="227"/>
+      <c r="L88" s="227"/>
+      <c r="M88" s="227"/>
+      <c r="N88" s="227"/>
+      <c r="O88" s="227"/>
+      <c r="P88" s="227"/>
+      <c r="Q88" s="227"/>
+      <c r="R88" s="228"/>
     </row>
     <row r="89" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="204"/>
-      <c r="B89" s="205"/>
-      <c r="C89" s="205"/>
-      <c r="D89" s="205"/>
-      <c r="E89" s="205"/>
-      <c r="F89" s="205"/>
-      <c r="G89" s="205"/>
-      <c r="H89" s="205"/>
-      <c r="I89" s="205"/>
-      <c r="J89" s="205"/>
-      <c r="K89" s="205"/>
-      <c r="L89" s="205"/>
-      <c r="M89" s="205"/>
-      <c r="N89" s="205"/>
-      <c r="O89" s="205"/>
-      <c r="P89" s="205"/>
-      <c r="Q89" s="205"/>
-      <c r="R89" s="206"/>
+      <c r="A89" s="230"/>
+      <c r="B89" s="231"/>
+      <c r="C89" s="231"/>
+      <c r="D89" s="231"/>
+      <c r="E89" s="231"/>
+      <c r="F89" s="231"/>
+      <c r="G89" s="231"/>
+      <c r="H89" s="231"/>
+      <c r="I89" s="231"/>
+      <c r="J89" s="231"/>
+      <c r="K89" s="231"/>
+      <c r="L89" s="231"/>
+      <c r="M89" s="231"/>
+      <c r="N89" s="231"/>
+      <c r="O89" s="231"/>
+      <c r="P89" s="231"/>
+      <c r="Q89" s="231"/>
+      <c r="R89" s="232"/>
     </row>
     <row r="90" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="211"/>
-      <c r="B90" s="212"/>
-      <c r="C90" s="212"/>
-      <c r="D90" s="212"/>
-      <c r="E90" s="212"/>
-      <c r="F90" s="212"/>
-      <c r="G90" s="212"/>
-      <c r="H90" s="212"/>
-      <c r="I90" s="212"/>
-      <c r="J90" s="212"/>
-      <c r="K90" s="212"/>
-      <c r="L90" s="212"/>
-      <c r="M90" s="212"/>
-      <c r="N90" s="212"/>
-      <c r="O90" s="212"/>
-      <c r="P90" s="212"/>
-      <c r="Q90" s="212"/>
-      <c r="R90" s="213"/>
+      <c r="A90" s="237"/>
+      <c r="B90" s="238"/>
+      <c r="C90" s="238"/>
+      <c r="D90" s="238"/>
+      <c r="E90" s="238"/>
+      <c r="F90" s="238"/>
+      <c r="G90" s="238"/>
+      <c r="H90" s="238"/>
+      <c r="I90" s="238"/>
+      <c r="J90" s="238"/>
+      <c r="K90" s="238"/>
+      <c r="L90" s="238"/>
+      <c r="M90" s="238"/>
+      <c r="N90" s="238"/>
+      <c r="O90" s="238"/>
+      <c r="P90" s="238"/>
+      <c r="Q90" s="238"/>
+      <c r="R90" s="239"/>
     </row>
     <row r="91" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="108"/>
@@ -7929,22 +7925,22 @@
       <c r="R104" s="63"/>
     </row>
     <row r="105" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="207" t="s">
+      <c r="A105" s="234" t="s">
         <v>48</v>
       </c>
-      <c r="B105" s="208"/>
-      <c r="C105" s="209" t="s">
+      <c r="B105" s="235"/>
+      <c r="C105" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="D105" s="210" t="s">
-        <v>85</v>
-      </c>
-      <c r="E105" s="210"/>
-      <c r="F105" s="210"/>
-      <c r="G105" s="210"/>
-      <c r="H105" s="210"/>
-      <c r="I105" s="210"/>
-      <c r="J105" s="209" t="s">
+      <c r="D105" s="176" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" s="176"/>
+      <c r="F105" s="176"/>
+      <c r="G105" s="176"/>
+      <c r="H105" s="176"/>
+      <c r="I105" s="176"/>
+      <c r="J105" s="236" t="s">
         <v>50</v>
       </c>
       <c r="K105" s="62"/>
@@ -7957,16 +7953,16 @@
       <c r="R105" s="63"/>
     </row>
     <row r="106" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="207"/>
-      <c r="B106" s="208"/>
-      <c r="C106" s="209"/>
-      <c r="D106" s="210"/>
-      <c r="E106" s="210"/>
-      <c r="F106" s="210"/>
-      <c r="G106" s="210"/>
-      <c r="H106" s="210"/>
-      <c r="I106" s="210"/>
-      <c r="J106" s="209"/>
+      <c r="A106" s="234"/>
+      <c r="B106" s="235"/>
+      <c r="C106" s="236"/>
+      <c r="D106" s="176"/>
+      <c r="E106" s="176"/>
+      <c r="F106" s="176"/>
+      <c r="G106" s="176"/>
+      <c r="H106" s="176"/>
+      <c r="I106" s="176"/>
+      <c r="J106" s="236"/>
       <c r="K106" s="62"/>
       <c r="L106" s="62"/>
       <c r="M106" s="62"/>
@@ -7977,126 +7973,126 @@
       <c r="R106" s="63"/>
     </row>
     <row r="107" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="207" t="s">
+      <c r="A107" s="234" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="208"/>
-      <c r="C107" s="274" t="s">
-        <v>97</v>
-      </c>
-      <c r="D107" s="210"/>
-      <c r="E107" s="210"/>
-      <c r="F107" s="210"/>
-      <c r="G107" s="210"/>
-      <c r="H107" s="210"/>
-      <c r="I107" s="210"/>
-      <c r="J107" s="210"/>
-      <c r="K107" s="210"/>
-      <c r="L107" s="210"/>
-      <c r="M107" s="210"/>
-      <c r="N107" s="210"/>
-      <c r="O107" s="210"/>
-      <c r="P107" s="210"/>
-      <c r="Q107" s="210"/>
-      <c r="R107" s="236"/>
+      <c r="B107" s="235"/>
+      <c r="C107" s="288" t="s">
+        <v>95</v>
+      </c>
+      <c r="D107" s="176"/>
+      <c r="E107" s="176"/>
+      <c r="F107" s="176"/>
+      <c r="G107" s="176"/>
+      <c r="H107" s="176"/>
+      <c r="I107" s="176"/>
+      <c r="J107" s="176"/>
+      <c r="K107" s="176"/>
+      <c r="L107" s="176"/>
+      <c r="M107" s="176"/>
+      <c r="N107" s="176"/>
+      <c r="O107" s="176"/>
+      <c r="P107" s="176"/>
+      <c r="Q107" s="176"/>
+      <c r="R107" s="262"/>
     </row>
     <row r="108" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="207"/>
-      <c r="B108" s="208"/>
-      <c r="C108" s="210"/>
-      <c r="D108" s="210"/>
-      <c r="E108" s="210"/>
-      <c r="F108" s="210"/>
-      <c r="G108" s="210"/>
-      <c r="H108" s="210"/>
-      <c r="I108" s="210"/>
-      <c r="J108" s="210"/>
-      <c r="K108" s="210"/>
-      <c r="L108" s="210"/>
-      <c r="M108" s="210"/>
-      <c r="N108" s="210"/>
-      <c r="O108" s="210"/>
-      <c r="P108" s="210"/>
-      <c r="Q108" s="210"/>
-      <c r="R108" s="236"/>
+      <c r="A108" s="234"/>
+      <c r="B108" s="235"/>
+      <c r="C108" s="176"/>
+      <c r="D108" s="176"/>
+      <c r="E108" s="176"/>
+      <c r="F108" s="176"/>
+      <c r="G108" s="176"/>
+      <c r="H108" s="176"/>
+      <c r="I108" s="176"/>
+      <c r="J108" s="176"/>
+      <c r="K108" s="176"/>
+      <c r="L108" s="176"/>
+      <c r="M108" s="176"/>
+      <c r="N108" s="176"/>
+      <c r="O108" s="176"/>
+      <c r="P108" s="176"/>
+      <c r="Q108" s="176"/>
+      <c r="R108" s="262"/>
     </row>
     <row r="109" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="64"/>
       <c r="B109" s="62"/>
-      <c r="C109" s="210"/>
-      <c r="D109" s="210"/>
-      <c r="E109" s="210"/>
-      <c r="F109" s="210"/>
-      <c r="G109" s="210"/>
-      <c r="H109" s="210"/>
-      <c r="I109" s="210"/>
-      <c r="J109" s="210"/>
-      <c r="K109" s="210"/>
-      <c r="L109" s="210"/>
-      <c r="M109" s="210"/>
-      <c r="N109" s="210"/>
-      <c r="O109" s="210"/>
-      <c r="P109" s="210"/>
-      <c r="Q109" s="210"/>
-      <c r="R109" s="236"/>
+      <c r="C109" s="176"/>
+      <c r="D109" s="176"/>
+      <c r="E109" s="176"/>
+      <c r="F109" s="176"/>
+      <c r="G109" s="176"/>
+      <c r="H109" s="176"/>
+      <c r="I109" s="176"/>
+      <c r="J109" s="176"/>
+      <c r="K109" s="176"/>
+      <c r="L109" s="176"/>
+      <c r="M109" s="176"/>
+      <c r="N109" s="176"/>
+      <c r="O109" s="176"/>
+      <c r="P109" s="176"/>
+      <c r="Q109" s="176"/>
+      <c r="R109" s="262"/>
     </row>
     <row r="110" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="64"/>
       <c r="B110" s="62"/>
-      <c r="C110" s="210"/>
-      <c r="D110" s="210"/>
-      <c r="E110" s="210"/>
-      <c r="F110" s="210"/>
-      <c r="G110" s="210"/>
-      <c r="H110" s="210"/>
-      <c r="I110" s="210"/>
-      <c r="J110" s="210"/>
-      <c r="K110" s="210"/>
-      <c r="L110" s="210"/>
-      <c r="M110" s="210"/>
-      <c r="N110" s="210"/>
-      <c r="O110" s="210"/>
-      <c r="P110" s="210"/>
-      <c r="Q110" s="210"/>
-      <c r="R110" s="236"/>
+      <c r="C110" s="176"/>
+      <c r="D110" s="176"/>
+      <c r="E110" s="176"/>
+      <c r="F110" s="176"/>
+      <c r="G110" s="176"/>
+      <c r="H110" s="176"/>
+      <c r="I110" s="176"/>
+      <c r="J110" s="176"/>
+      <c r="K110" s="176"/>
+      <c r="L110" s="176"/>
+      <c r="M110" s="176"/>
+      <c r="N110" s="176"/>
+      <c r="O110" s="176"/>
+      <c r="P110" s="176"/>
+      <c r="Q110" s="176"/>
+      <c r="R110" s="262"/>
     </row>
     <row r="111" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="65"/>
       <c r="B111" s="66"/>
-      <c r="C111" s="237"/>
-      <c r="D111" s="237"/>
-      <c r="E111" s="237"/>
-      <c r="F111" s="237"/>
-      <c r="G111" s="237"/>
-      <c r="H111" s="237"/>
-      <c r="I111" s="237"/>
-      <c r="J111" s="237"/>
-      <c r="K111" s="237"/>
-      <c r="L111" s="237"/>
-      <c r="M111" s="237"/>
-      <c r="N111" s="237"/>
-      <c r="O111" s="237"/>
-      <c r="P111" s="237"/>
-      <c r="Q111" s="237"/>
-      <c r="R111" s="238"/>
+      <c r="C111" s="191"/>
+      <c r="D111" s="191"/>
+      <c r="E111" s="191"/>
+      <c r="F111" s="191"/>
+      <c r="G111" s="191"/>
+      <c r="H111" s="191"/>
+      <c r="I111" s="191"/>
+      <c r="J111" s="191"/>
+      <c r="K111" s="191"/>
+      <c r="L111" s="191"/>
+      <c r="M111" s="191"/>
+      <c r="N111" s="191"/>
+      <c r="O111" s="191"/>
+      <c r="P111" s="191"/>
+      <c r="Q111" s="191"/>
+      <c r="R111" s="263"/>
     </row>
     <row r="112" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="270" t="s">
+      <c r="A112" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="B112" s="271"/>
-      <c r="C112" s="272" t="s">
+      <c r="B112" s="306"/>
+      <c r="C112" s="307" t="s">
         <v>49</v>
       </c>
-      <c r="D112" s="296" t="s">
-        <v>86</v>
-      </c>
-      <c r="E112" s="296"/>
-      <c r="F112" s="296"/>
-      <c r="G112" s="296"/>
-      <c r="H112" s="296"/>
-      <c r="I112" s="296"/>
-      <c r="J112" s="272" t="s">
+      <c r="D112" s="174" t="s">
+        <v>85</v>
+      </c>
+      <c r="E112" s="174"/>
+      <c r="F112" s="174"/>
+      <c r="G112" s="174"/>
+      <c r="H112" s="174"/>
+      <c r="I112" s="174"/>
+      <c r="J112" s="307" t="s">
         <v>50</v>
       </c>
       <c r="K112" s="59"/>
@@ -8109,16 +8105,16 @@
       <c r="R112" s="60"/>
     </row>
     <row r="113" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="207"/>
-      <c r="B113" s="208"/>
-      <c r="C113" s="209"/>
-      <c r="D113" s="210"/>
-      <c r="E113" s="210"/>
-      <c r="F113" s="210"/>
-      <c r="G113" s="210"/>
-      <c r="H113" s="210"/>
-      <c r="I113" s="210"/>
-      <c r="J113" s="209"/>
+      <c r="A113" s="234"/>
+      <c r="B113" s="235"/>
+      <c r="C113" s="236"/>
+      <c r="D113" s="176"/>
+      <c r="E113" s="176"/>
+      <c r="F113" s="176"/>
+      <c r="G113" s="176"/>
+      <c r="H113" s="176"/>
+      <c r="I113" s="176"/>
+      <c r="J113" s="236"/>
       <c r="K113" s="62"/>
       <c r="L113" s="62"/>
       <c r="M113" s="62"/>
@@ -8129,126 +8125,126 @@
       <c r="R113" s="63"/>
     </row>
     <row r="114" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="207" t="s">
+      <c r="A114" s="234" t="s">
         <v>51</v>
       </c>
-      <c r="B114" s="208"/>
-      <c r="C114" s="274" t="s">
-        <v>95</v>
-      </c>
-      <c r="D114" s="210"/>
-      <c r="E114" s="210"/>
-      <c r="F114" s="210"/>
-      <c r="G114" s="210"/>
-      <c r="H114" s="210"/>
-      <c r="I114" s="210"/>
-      <c r="J114" s="210"/>
-      <c r="K114" s="210"/>
-      <c r="L114" s="210"/>
-      <c r="M114" s="210"/>
-      <c r="N114" s="210"/>
-      <c r="O114" s="210"/>
-      <c r="P114" s="210"/>
-      <c r="Q114" s="210"/>
-      <c r="R114" s="236"/>
+      <c r="B114" s="235"/>
+      <c r="C114" s="288" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" s="176"/>
+      <c r="E114" s="176"/>
+      <c r="F114" s="176"/>
+      <c r="G114" s="176"/>
+      <c r="H114" s="176"/>
+      <c r="I114" s="176"/>
+      <c r="J114" s="176"/>
+      <c r="K114" s="176"/>
+      <c r="L114" s="176"/>
+      <c r="M114" s="176"/>
+      <c r="N114" s="176"/>
+      <c r="O114" s="176"/>
+      <c r="P114" s="176"/>
+      <c r="Q114" s="176"/>
+      <c r="R114" s="262"/>
     </row>
     <row r="115" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="207"/>
-      <c r="B115" s="208"/>
-      <c r="C115" s="210"/>
-      <c r="D115" s="210"/>
-      <c r="E115" s="210"/>
-      <c r="F115" s="210"/>
-      <c r="G115" s="210"/>
-      <c r="H115" s="210"/>
-      <c r="I115" s="210"/>
-      <c r="J115" s="210"/>
-      <c r="K115" s="210"/>
-      <c r="L115" s="210"/>
-      <c r="M115" s="210"/>
-      <c r="N115" s="210"/>
-      <c r="O115" s="210"/>
-      <c r="P115" s="210"/>
-      <c r="Q115" s="210"/>
-      <c r="R115" s="236"/>
+      <c r="A115" s="234"/>
+      <c r="B115" s="235"/>
+      <c r="C115" s="176"/>
+      <c r="D115" s="176"/>
+      <c r="E115" s="176"/>
+      <c r="F115" s="176"/>
+      <c r="G115" s="176"/>
+      <c r="H115" s="176"/>
+      <c r="I115" s="176"/>
+      <c r="J115" s="176"/>
+      <c r="K115" s="176"/>
+      <c r="L115" s="176"/>
+      <c r="M115" s="176"/>
+      <c r="N115" s="176"/>
+      <c r="O115" s="176"/>
+      <c r="P115" s="176"/>
+      <c r="Q115" s="176"/>
+      <c r="R115" s="262"/>
     </row>
     <row r="116" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="64"/>
       <c r="B116" s="62"/>
-      <c r="C116" s="210"/>
-      <c r="D116" s="210"/>
-      <c r="E116" s="210"/>
-      <c r="F116" s="210"/>
-      <c r="G116" s="210"/>
-      <c r="H116" s="210"/>
-      <c r="I116" s="210"/>
-      <c r="J116" s="210"/>
-      <c r="K116" s="210"/>
-      <c r="L116" s="210"/>
-      <c r="M116" s="210"/>
-      <c r="N116" s="210"/>
-      <c r="O116" s="210"/>
-      <c r="P116" s="210"/>
-      <c r="Q116" s="210"/>
-      <c r="R116" s="236"/>
+      <c r="C116" s="176"/>
+      <c r="D116" s="176"/>
+      <c r="E116" s="176"/>
+      <c r="F116" s="176"/>
+      <c r="G116" s="176"/>
+      <c r="H116" s="176"/>
+      <c r="I116" s="176"/>
+      <c r="J116" s="176"/>
+      <c r="K116" s="176"/>
+      <c r="L116" s="176"/>
+      <c r="M116" s="176"/>
+      <c r="N116" s="176"/>
+      <c r="O116" s="176"/>
+      <c r="P116" s="176"/>
+      <c r="Q116" s="176"/>
+      <c r="R116" s="262"/>
     </row>
     <row r="117" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="64"/>
       <c r="B117" s="62"/>
-      <c r="C117" s="210"/>
-      <c r="D117" s="210"/>
-      <c r="E117" s="210"/>
-      <c r="F117" s="210"/>
-      <c r="G117" s="210"/>
-      <c r="H117" s="210"/>
-      <c r="I117" s="210"/>
-      <c r="J117" s="210"/>
-      <c r="K117" s="210"/>
-      <c r="L117" s="210"/>
-      <c r="M117" s="210"/>
-      <c r="N117" s="210"/>
-      <c r="O117" s="210"/>
-      <c r="P117" s="210"/>
-      <c r="Q117" s="210"/>
-      <c r="R117" s="236"/>
+      <c r="C117" s="176"/>
+      <c r="D117" s="176"/>
+      <c r="E117" s="176"/>
+      <c r="F117" s="176"/>
+      <c r="G117" s="176"/>
+      <c r="H117" s="176"/>
+      <c r="I117" s="176"/>
+      <c r="J117" s="176"/>
+      <c r="K117" s="176"/>
+      <c r="L117" s="176"/>
+      <c r="M117" s="176"/>
+      <c r="N117" s="176"/>
+      <c r="O117" s="176"/>
+      <c r="P117" s="176"/>
+      <c r="Q117" s="176"/>
+      <c r="R117" s="262"/>
     </row>
     <row r="118" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="65"/>
       <c r="B118" s="66"/>
-      <c r="C118" s="237"/>
-      <c r="D118" s="237"/>
-      <c r="E118" s="237"/>
-      <c r="F118" s="237"/>
-      <c r="G118" s="237"/>
-      <c r="H118" s="237"/>
-      <c r="I118" s="237"/>
-      <c r="J118" s="237"/>
-      <c r="K118" s="237"/>
-      <c r="L118" s="237"/>
-      <c r="M118" s="237"/>
-      <c r="N118" s="237"/>
-      <c r="O118" s="237"/>
-      <c r="P118" s="237"/>
-      <c r="Q118" s="237"/>
-      <c r="R118" s="238"/>
+      <c r="C118" s="191"/>
+      <c r="D118" s="191"/>
+      <c r="E118" s="191"/>
+      <c r="F118" s="191"/>
+      <c r="G118" s="191"/>
+      <c r="H118" s="191"/>
+      <c r="I118" s="191"/>
+      <c r="J118" s="191"/>
+      <c r="K118" s="191"/>
+      <c r="L118" s="191"/>
+      <c r="M118" s="191"/>
+      <c r="N118" s="191"/>
+      <c r="O118" s="191"/>
+      <c r="P118" s="191"/>
+      <c r="Q118" s="191"/>
+      <c r="R118" s="263"/>
     </row>
     <row r="119" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="270" t="s">
+      <c r="A119" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="B119" s="271"/>
-      <c r="C119" s="272" t="s">
+      <c r="B119" s="306"/>
+      <c r="C119" s="307" t="s">
         <v>49</v>
       </c>
-      <c r="D119" s="296" t="s">
-        <v>87</v>
-      </c>
-      <c r="E119" s="296"/>
-      <c r="F119" s="296"/>
-      <c r="G119" s="296"/>
-      <c r="H119" s="296"/>
-      <c r="I119" s="296"/>
-      <c r="J119" s="272" t="s">
+      <c r="D119" s="174" t="s">
+        <v>86</v>
+      </c>
+      <c r="E119" s="174"/>
+      <c r="F119" s="174"/>
+      <c r="G119" s="174"/>
+      <c r="H119" s="174"/>
+      <c r="I119" s="174"/>
+      <c r="J119" s="307" t="s">
         <v>50</v>
       </c>
       <c r="K119" s="59"/>
@@ -8261,16 +8257,16 @@
       <c r="R119" s="60"/>
     </row>
     <row r="120" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="207"/>
-      <c r="B120" s="208"/>
-      <c r="C120" s="209"/>
-      <c r="D120" s="210"/>
-      <c r="E120" s="210"/>
-      <c r="F120" s="210"/>
-      <c r="G120" s="210"/>
-      <c r="H120" s="210"/>
-      <c r="I120" s="210"/>
-      <c r="J120" s="209"/>
+      <c r="A120" s="234"/>
+      <c r="B120" s="235"/>
+      <c r="C120" s="236"/>
+      <c r="D120" s="176"/>
+      <c r="E120" s="176"/>
+      <c r="F120" s="176"/>
+      <c r="G120" s="176"/>
+      <c r="H120" s="176"/>
+      <c r="I120" s="176"/>
+      <c r="J120" s="236"/>
       <c r="K120" s="62"/>
       <c r="L120" s="62"/>
       <c r="M120" s="62"/>
@@ -8281,108 +8277,108 @@
       <c r="R120" s="63"/>
     </row>
     <row r="121" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="207" t="s">
+      <c r="A121" s="234" t="s">
         <v>51</v>
       </c>
-      <c r="B121" s="208"/>
-      <c r="C121" s="274" t="s">
-        <v>96</v>
-      </c>
-      <c r="D121" s="210"/>
-      <c r="E121" s="210"/>
-      <c r="F121" s="210"/>
-      <c r="G121" s="210"/>
-      <c r="H121" s="210"/>
-      <c r="I121" s="210"/>
-      <c r="J121" s="210"/>
-      <c r="K121" s="210"/>
-      <c r="L121" s="210"/>
-      <c r="M121" s="210"/>
-      <c r="N121" s="210"/>
-      <c r="O121" s="210"/>
-      <c r="P121" s="210"/>
-      <c r="Q121" s="210"/>
-      <c r="R121" s="236"/>
+      <c r="B121" s="235"/>
+      <c r="C121" s="288" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121" s="176"/>
+      <c r="E121" s="176"/>
+      <c r="F121" s="176"/>
+      <c r="G121" s="176"/>
+      <c r="H121" s="176"/>
+      <c r="I121" s="176"/>
+      <c r="J121" s="176"/>
+      <c r="K121" s="176"/>
+      <c r="L121" s="176"/>
+      <c r="M121" s="176"/>
+      <c r="N121" s="176"/>
+      <c r="O121" s="176"/>
+      <c r="P121" s="176"/>
+      <c r="Q121" s="176"/>
+      <c r="R121" s="262"/>
     </row>
     <row r="122" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="207"/>
-      <c r="B122" s="208"/>
-      <c r="C122" s="210"/>
-      <c r="D122" s="210"/>
-      <c r="E122" s="210"/>
-      <c r="F122" s="210"/>
-      <c r="G122" s="210"/>
-      <c r="H122" s="210"/>
-      <c r="I122" s="210"/>
-      <c r="J122" s="210"/>
-      <c r="K122" s="210"/>
-      <c r="L122" s="210"/>
-      <c r="M122" s="210"/>
-      <c r="N122" s="210"/>
-      <c r="O122" s="210"/>
-      <c r="P122" s="210"/>
-      <c r="Q122" s="210"/>
-      <c r="R122" s="236"/>
+      <c r="A122" s="234"/>
+      <c r="B122" s="235"/>
+      <c r="C122" s="176"/>
+      <c r="D122" s="176"/>
+      <c r="E122" s="176"/>
+      <c r="F122" s="176"/>
+      <c r="G122" s="176"/>
+      <c r="H122" s="176"/>
+      <c r="I122" s="176"/>
+      <c r="J122" s="176"/>
+      <c r="K122" s="176"/>
+      <c r="L122" s="176"/>
+      <c r="M122" s="176"/>
+      <c r="N122" s="176"/>
+      <c r="O122" s="176"/>
+      <c r="P122" s="176"/>
+      <c r="Q122" s="176"/>
+      <c r="R122" s="262"/>
     </row>
     <row r="123" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="64"/>
       <c r="B123" s="62"/>
-      <c r="C123" s="210"/>
-      <c r="D123" s="210"/>
-      <c r="E123" s="210"/>
-      <c r="F123" s="210"/>
-      <c r="G123" s="210"/>
-      <c r="H123" s="210"/>
-      <c r="I123" s="210"/>
-      <c r="J123" s="210"/>
-      <c r="K123" s="210"/>
-      <c r="L123" s="210"/>
-      <c r="M123" s="210"/>
-      <c r="N123" s="210"/>
-      <c r="O123" s="210"/>
-      <c r="P123" s="210"/>
-      <c r="Q123" s="210"/>
-      <c r="R123" s="236"/>
+      <c r="C123" s="176"/>
+      <c r="D123" s="176"/>
+      <c r="E123" s="176"/>
+      <c r="F123" s="176"/>
+      <c r="G123" s="176"/>
+      <c r="H123" s="176"/>
+      <c r="I123" s="176"/>
+      <c r="J123" s="176"/>
+      <c r="K123" s="176"/>
+      <c r="L123" s="176"/>
+      <c r="M123" s="176"/>
+      <c r="N123" s="176"/>
+      <c r="O123" s="176"/>
+      <c r="P123" s="176"/>
+      <c r="Q123" s="176"/>
+      <c r="R123" s="262"/>
     </row>
     <row r="124" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="64"/>
       <c r="B124" s="62"/>
-      <c r="C124" s="210"/>
-      <c r="D124" s="210"/>
-      <c r="E124" s="210"/>
-      <c r="F124" s="210"/>
-      <c r="G124" s="210"/>
-      <c r="H124" s="210"/>
-      <c r="I124" s="210"/>
-      <c r="J124" s="210"/>
-      <c r="K124" s="210"/>
-      <c r="L124" s="210"/>
-      <c r="M124" s="210"/>
-      <c r="N124" s="210"/>
-      <c r="O124" s="210"/>
-      <c r="P124" s="210"/>
-      <c r="Q124" s="210"/>
-      <c r="R124" s="236"/>
+      <c r="C124" s="176"/>
+      <c r="D124" s="176"/>
+      <c r="E124" s="176"/>
+      <c r="F124" s="176"/>
+      <c r="G124" s="176"/>
+      <c r="H124" s="176"/>
+      <c r="I124" s="176"/>
+      <c r="J124" s="176"/>
+      <c r="K124" s="176"/>
+      <c r="L124" s="176"/>
+      <c r="M124" s="176"/>
+      <c r="N124" s="176"/>
+      <c r="O124" s="176"/>
+      <c r="P124" s="176"/>
+      <c r="Q124" s="176"/>
+      <c r="R124" s="262"/>
     </row>
     <row r="125" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A125" s="65"/>
       <c r="B125" s="66"/>
-      <c r="C125" s="237"/>
-      <c r="D125" s="237"/>
-      <c r="E125" s="237"/>
-      <c r="F125" s="237"/>
-      <c r="G125" s="237"/>
-      <c r="H125" s="237"/>
-      <c r="I125" s="237"/>
-      <c r="J125" s="237"/>
-      <c r="K125" s="237"/>
-      <c r="L125" s="237"/>
-      <c r="M125" s="237"/>
-      <c r="N125" s="237"/>
-      <c r="O125" s="237"/>
-      <c r="P125" s="237"/>
-      <c r="Q125" s="237"/>
-      <c r="R125" s="238"/>
+      <c r="C125" s="191"/>
+      <c r="D125" s="191"/>
+      <c r="E125" s="191"/>
+      <c r="F125" s="191"/>
+      <c r="G125" s="191"/>
+      <c r="H125" s="191"/>
+      <c r="I125" s="191"/>
+      <c r="J125" s="191"/>
+      <c r="K125" s="191"/>
+      <c r="L125" s="191"/>
+      <c r="M125" s="191"/>
+      <c r="N125" s="191"/>
+      <c r="O125" s="191"/>
+      <c r="P125" s="191"/>
+      <c r="Q125" s="191"/>
+      <c r="R125" s="263"/>
     </row>
     <row r="126" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
@@ -8405,368 +8401,368 @@
       <c r="R126" s="4"/>
     </row>
     <row r="127" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="214" t="s">
+      <c r="A127" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="215"/>
-      <c r="C127" s="215"/>
-      <c r="D127" s="215"/>
-      <c r="E127" s="215"/>
-      <c r="F127" s="215"/>
-      <c r="G127" s="215"/>
-      <c r="H127" s="215"/>
-      <c r="I127" s="215"/>
-      <c r="J127" s="215"/>
-      <c r="K127" s="215"/>
-      <c r="L127" s="215"/>
-      <c r="M127" s="215"/>
-      <c r="N127" s="215"/>
-      <c r="O127" s="215"/>
-      <c r="P127" s="215"/>
-      <c r="Q127" s="215"/>
-      <c r="R127" s="216"/>
+      <c r="B127" s="241"/>
+      <c r="C127" s="241"/>
+      <c r="D127" s="241"/>
+      <c r="E127" s="241"/>
+      <c r="F127" s="241"/>
+      <c r="G127" s="241"/>
+      <c r="H127" s="241"/>
+      <c r="I127" s="241"/>
+      <c r="J127" s="241"/>
+      <c r="K127" s="241"/>
+      <c r="L127" s="241"/>
+      <c r="M127" s="241"/>
+      <c r="N127" s="241"/>
+      <c r="O127" s="241"/>
+      <c r="P127" s="241"/>
+      <c r="Q127" s="241"/>
+      <c r="R127" s="242"/>
     </row>
     <row r="128" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="302" t="s">
-        <v>99</v>
-      </c>
-      <c r="B128" s="256"/>
-      <c r="C128" s="256"/>
-      <c r="D128" s="256"/>
-      <c r="E128" s="256"/>
-      <c r="F128" s="256"/>
-      <c r="G128" s="256"/>
-      <c r="H128" s="256"/>
-      <c r="I128" s="256"/>
-      <c r="J128" s="256"/>
-      <c r="K128" s="256"/>
-      <c r="L128" s="256"/>
-      <c r="M128" s="256"/>
-      <c r="N128" s="256"/>
-      <c r="O128" s="256"/>
-      <c r="P128" s="256"/>
-      <c r="Q128" s="256"/>
-      <c r="R128" s="257"/>
+      <c r="A128" s="289" t="s">
+        <v>97</v>
+      </c>
+      <c r="B128" s="290"/>
+      <c r="C128" s="290"/>
+      <c r="D128" s="290"/>
+      <c r="E128" s="290"/>
+      <c r="F128" s="290"/>
+      <c r="G128" s="290"/>
+      <c r="H128" s="290"/>
+      <c r="I128" s="290"/>
+      <c r="J128" s="290"/>
+      <c r="K128" s="290"/>
+      <c r="L128" s="290"/>
+      <c r="M128" s="290"/>
+      <c r="N128" s="290"/>
+      <c r="O128" s="290"/>
+      <c r="P128" s="290"/>
+      <c r="Q128" s="290"/>
+      <c r="R128" s="291"/>
     </row>
     <row r="129" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="255"/>
-      <c r="B129" s="256"/>
-      <c r="C129" s="256"/>
-      <c r="D129" s="256"/>
-      <c r="E129" s="256"/>
-      <c r="F129" s="256"/>
-      <c r="G129" s="256"/>
-      <c r="H129" s="256"/>
-      <c r="I129" s="256"/>
-      <c r="J129" s="256"/>
-      <c r="K129" s="256"/>
-      <c r="L129" s="256"/>
-      <c r="M129" s="256"/>
-      <c r="N129" s="256"/>
-      <c r="O129" s="256"/>
-      <c r="P129" s="256"/>
-      <c r="Q129" s="256"/>
-      <c r="R129" s="257"/>
+      <c r="A129" s="292"/>
+      <c r="B129" s="290"/>
+      <c r="C129" s="290"/>
+      <c r="D129" s="290"/>
+      <c r="E129" s="290"/>
+      <c r="F129" s="290"/>
+      <c r="G129" s="290"/>
+      <c r="H129" s="290"/>
+      <c r="I129" s="290"/>
+      <c r="J129" s="290"/>
+      <c r="K129" s="290"/>
+      <c r="L129" s="290"/>
+      <c r="M129" s="290"/>
+      <c r="N129" s="290"/>
+      <c r="O129" s="290"/>
+      <c r="P129" s="290"/>
+      <c r="Q129" s="290"/>
+      <c r="R129" s="291"/>
     </row>
     <row r="130" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="255"/>
-      <c r="B130" s="256"/>
-      <c r="C130" s="256"/>
-      <c r="D130" s="256"/>
-      <c r="E130" s="256"/>
-      <c r="F130" s="256"/>
-      <c r="G130" s="256"/>
-      <c r="H130" s="256"/>
-      <c r="I130" s="256"/>
-      <c r="J130" s="256"/>
-      <c r="K130" s="256"/>
-      <c r="L130" s="256"/>
-      <c r="M130" s="256"/>
-      <c r="N130" s="256"/>
-      <c r="O130" s="256"/>
-      <c r="P130" s="256"/>
-      <c r="Q130" s="256"/>
-      <c r="R130" s="257"/>
+      <c r="A130" s="292"/>
+      <c r="B130" s="290"/>
+      <c r="C130" s="290"/>
+      <c r="D130" s="290"/>
+      <c r="E130" s="290"/>
+      <c r="F130" s="290"/>
+      <c r="G130" s="290"/>
+      <c r="H130" s="290"/>
+      <c r="I130" s="290"/>
+      <c r="J130" s="290"/>
+      <c r="K130" s="290"/>
+      <c r="L130" s="290"/>
+      <c r="M130" s="290"/>
+      <c r="N130" s="290"/>
+      <c r="O130" s="290"/>
+      <c r="P130" s="290"/>
+      <c r="Q130" s="290"/>
+      <c r="R130" s="291"/>
     </row>
     <row r="131" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="255"/>
-      <c r="B131" s="256"/>
-      <c r="C131" s="256"/>
-      <c r="D131" s="256"/>
-      <c r="E131" s="256"/>
-      <c r="F131" s="256"/>
-      <c r="G131" s="256"/>
-      <c r="H131" s="256"/>
-      <c r="I131" s="256"/>
-      <c r="J131" s="256"/>
-      <c r="K131" s="256"/>
-      <c r="L131" s="256"/>
-      <c r="M131" s="256"/>
-      <c r="N131" s="256"/>
-      <c r="O131" s="256"/>
-      <c r="P131" s="256"/>
-      <c r="Q131" s="256"/>
-      <c r="R131" s="257"/>
+      <c r="A131" s="292"/>
+      <c r="B131" s="290"/>
+      <c r="C131" s="290"/>
+      <c r="D131" s="290"/>
+      <c r="E131" s="290"/>
+      <c r="F131" s="290"/>
+      <c r="G131" s="290"/>
+      <c r="H131" s="290"/>
+      <c r="I131" s="290"/>
+      <c r="J131" s="290"/>
+      <c r="K131" s="290"/>
+      <c r="L131" s="290"/>
+      <c r="M131" s="290"/>
+      <c r="N131" s="290"/>
+      <c r="O131" s="290"/>
+      <c r="P131" s="290"/>
+      <c r="Q131" s="290"/>
+      <c r="R131" s="291"/>
     </row>
     <row r="132" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="255"/>
-      <c r="B132" s="256"/>
-      <c r="C132" s="256"/>
-      <c r="D132" s="256"/>
-      <c r="E132" s="256"/>
-      <c r="F132" s="256"/>
-      <c r="G132" s="256"/>
-      <c r="H132" s="256"/>
-      <c r="I132" s="256"/>
-      <c r="J132" s="256"/>
-      <c r="K132" s="256"/>
-      <c r="L132" s="256"/>
-      <c r="M132" s="256"/>
-      <c r="N132" s="256"/>
-      <c r="O132" s="256"/>
-      <c r="P132" s="256"/>
-      <c r="Q132" s="256"/>
-      <c r="R132" s="257"/>
+      <c r="A132" s="292"/>
+      <c r="B132" s="290"/>
+      <c r="C132" s="290"/>
+      <c r="D132" s="290"/>
+      <c r="E132" s="290"/>
+      <c r="F132" s="290"/>
+      <c r="G132" s="290"/>
+      <c r="H132" s="290"/>
+      <c r="I132" s="290"/>
+      <c r="J132" s="290"/>
+      <c r="K132" s="290"/>
+      <c r="L132" s="290"/>
+      <c r="M132" s="290"/>
+      <c r="N132" s="290"/>
+      <c r="O132" s="290"/>
+      <c r="P132" s="290"/>
+      <c r="Q132" s="290"/>
+      <c r="R132" s="291"/>
     </row>
     <row r="133" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="255"/>
-      <c r="B133" s="256"/>
-      <c r="C133" s="256"/>
-      <c r="D133" s="256"/>
-      <c r="E133" s="256"/>
-      <c r="F133" s="256"/>
-      <c r="G133" s="256"/>
-      <c r="H133" s="256"/>
-      <c r="I133" s="256"/>
-      <c r="J133" s="256"/>
-      <c r="K133" s="256"/>
-      <c r="L133" s="256"/>
-      <c r="M133" s="256"/>
-      <c r="N133" s="256"/>
-      <c r="O133" s="256"/>
-      <c r="P133" s="256"/>
-      <c r="Q133" s="256"/>
-      <c r="R133" s="257"/>
+      <c r="A133" s="292"/>
+      <c r="B133" s="290"/>
+      <c r="C133" s="290"/>
+      <c r="D133" s="290"/>
+      <c r="E133" s="290"/>
+      <c r="F133" s="290"/>
+      <c r="G133" s="290"/>
+      <c r="H133" s="290"/>
+      <c r="I133" s="290"/>
+      <c r="J133" s="290"/>
+      <c r="K133" s="290"/>
+      <c r="L133" s="290"/>
+      <c r="M133" s="290"/>
+      <c r="N133" s="290"/>
+      <c r="O133" s="290"/>
+      <c r="P133" s="290"/>
+      <c r="Q133" s="290"/>
+      <c r="R133" s="291"/>
     </row>
     <row r="134" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="255"/>
-      <c r="B134" s="256"/>
-      <c r="C134" s="256"/>
-      <c r="D134" s="256"/>
-      <c r="E134" s="256"/>
-      <c r="F134" s="256"/>
-      <c r="G134" s="256"/>
-      <c r="H134" s="256"/>
-      <c r="I134" s="256"/>
-      <c r="J134" s="256"/>
-      <c r="K134" s="256"/>
-      <c r="L134" s="256"/>
-      <c r="M134" s="256"/>
-      <c r="N134" s="256"/>
-      <c r="O134" s="256"/>
-      <c r="P134" s="256"/>
-      <c r="Q134" s="256"/>
-      <c r="R134" s="257"/>
+      <c r="A134" s="292"/>
+      <c r="B134" s="290"/>
+      <c r="C134" s="290"/>
+      <c r="D134" s="290"/>
+      <c r="E134" s="290"/>
+      <c r="F134" s="290"/>
+      <c r="G134" s="290"/>
+      <c r="H134" s="290"/>
+      <c r="I134" s="290"/>
+      <c r="J134" s="290"/>
+      <c r="K134" s="290"/>
+      <c r="L134" s="290"/>
+      <c r="M134" s="290"/>
+      <c r="N134" s="290"/>
+      <c r="O134" s="290"/>
+      <c r="P134" s="290"/>
+      <c r="Q134" s="290"/>
+      <c r="R134" s="291"/>
     </row>
     <row r="135" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="255"/>
-      <c r="B135" s="256"/>
-      <c r="C135" s="256"/>
-      <c r="D135" s="256"/>
-      <c r="E135" s="256"/>
-      <c r="F135" s="256"/>
-      <c r="G135" s="256"/>
-      <c r="H135" s="256"/>
-      <c r="I135" s="256"/>
-      <c r="J135" s="256"/>
-      <c r="K135" s="256"/>
-      <c r="L135" s="256"/>
-      <c r="M135" s="256"/>
-      <c r="N135" s="256"/>
-      <c r="O135" s="256"/>
-      <c r="P135" s="256"/>
-      <c r="Q135" s="256"/>
-      <c r="R135" s="257"/>
+      <c r="A135" s="292"/>
+      <c r="B135" s="290"/>
+      <c r="C135" s="290"/>
+      <c r="D135" s="290"/>
+      <c r="E135" s="290"/>
+      <c r="F135" s="290"/>
+      <c r="G135" s="290"/>
+      <c r="H135" s="290"/>
+      <c r="I135" s="290"/>
+      <c r="J135" s="290"/>
+      <c r="K135" s="290"/>
+      <c r="L135" s="290"/>
+      <c r="M135" s="290"/>
+      <c r="N135" s="290"/>
+      <c r="O135" s="290"/>
+      <c r="P135" s="290"/>
+      <c r="Q135" s="290"/>
+      <c r="R135" s="291"/>
     </row>
     <row r="136" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="255"/>
-      <c r="B136" s="256"/>
-      <c r="C136" s="256"/>
-      <c r="D136" s="256"/>
-      <c r="E136" s="256"/>
-      <c r="F136" s="256"/>
-      <c r="G136" s="256"/>
-      <c r="H136" s="256"/>
-      <c r="I136" s="256"/>
-      <c r="J136" s="256"/>
-      <c r="K136" s="256"/>
-      <c r="L136" s="256"/>
-      <c r="M136" s="256"/>
-      <c r="N136" s="256"/>
-      <c r="O136" s="256"/>
-      <c r="P136" s="256"/>
-      <c r="Q136" s="256"/>
-      <c r="R136" s="257"/>
+      <c r="A136" s="292"/>
+      <c r="B136" s="290"/>
+      <c r="C136" s="290"/>
+      <c r="D136" s="290"/>
+      <c r="E136" s="290"/>
+      <c r="F136" s="290"/>
+      <c r="G136" s="290"/>
+      <c r="H136" s="290"/>
+      <c r="I136" s="290"/>
+      <c r="J136" s="290"/>
+      <c r="K136" s="290"/>
+      <c r="L136" s="290"/>
+      <c r="M136" s="290"/>
+      <c r="N136" s="290"/>
+      <c r="O136" s="290"/>
+      <c r="P136" s="290"/>
+      <c r="Q136" s="290"/>
+      <c r="R136" s="291"/>
     </row>
     <row r="137" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="255"/>
-      <c r="B137" s="256"/>
-      <c r="C137" s="256"/>
-      <c r="D137" s="256"/>
-      <c r="E137" s="256"/>
-      <c r="F137" s="256"/>
-      <c r="G137" s="256"/>
-      <c r="H137" s="256"/>
-      <c r="I137" s="256"/>
-      <c r="J137" s="256"/>
-      <c r="K137" s="256"/>
-      <c r="L137" s="256"/>
-      <c r="M137" s="256"/>
-      <c r="N137" s="256"/>
-      <c r="O137" s="256"/>
-      <c r="P137" s="256"/>
-      <c r="Q137" s="256"/>
-      <c r="R137" s="257"/>
+      <c r="A137" s="292"/>
+      <c r="B137" s="290"/>
+      <c r="C137" s="290"/>
+      <c r="D137" s="290"/>
+      <c r="E137" s="290"/>
+      <c r="F137" s="290"/>
+      <c r="G137" s="290"/>
+      <c r="H137" s="290"/>
+      <c r="I137" s="290"/>
+      <c r="J137" s="290"/>
+      <c r="K137" s="290"/>
+      <c r="L137" s="290"/>
+      <c r="M137" s="290"/>
+      <c r="N137" s="290"/>
+      <c r="O137" s="290"/>
+      <c r="P137" s="290"/>
+      <c r="Q137" s="290"/>
+      <c r="R137" s="291"/>
     </row>
     <row r="138" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="255"/>
-      <c r="B138" s="256"/>
-      <c r="C138" s="256"/>
-      <c r="D138" s="256"/>
-      <c r="E138" s="256"/>
-      <c r="F138" s="256"/>
-      <c r="G138" s="256"/>
-      <c r="H138" s="256"/>
-      <c r="I138" s="256"/>
-      <c r="J138" s="256"/>
-      <c r="K138" s="256"/>
-      <c r="L138" s="256"/>
-      <c r="M138" s="256"/>
-      <c r="N138" s="256"/>
-      <c r="O138" s="256"/>
-      <c r="P138" s="256"/>
-      <c r="Q138" s="256"/>
-      <c r="R138" s="257"/>
+      <c r="A138" s="292"/>
+      <c r="B138" s="290"/>
+      <c r="C138" s="290"/>
+      <c r="D138" s="290"/>
+      <c r="E138" s="290"/>
+      <c r="F138" s="290"/>
+      <c r="G138" s="290"/>
+      <c r="H138" s="290"/>
+      <c r="I138" s="290"/>
+      <c r="J138" s="290"/>
+      <c r="K138" s="290"/>
+      <c r="L138" s="290"/>
+      <c r="M138" s="290"/>
+      <c r="N138" s="290"/>
+      <c r="O138" s="290"/>
+      <c r="P138" s="290"/>
+      <c r="Q138" s="290"/>
+      <c r="R138" s="291"/>
     </row>
     <row r="139" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="255"/>
-      <c r="B139" s="256"/>
-      <c r="C139" s="256"/>
-      <c r="D139" s="256"/>
-      <c r="E139" s="256"/>
-      <c r="F139" s="256"/>
-      <c r="G139" s="256"/>
-      <c r="H139" s="256"/>
-      <c r="I139" s="256"/>
-      <c r="J139" s="256"/>
-      <c r="K139" s="256"/>
-      <c r="L139" s="256"/>
-      <c r="M139" s="256"/>
-      <c r="N139" s="256"/>
-      <c r="O139" s="256"/>
-      <c r="P139" s="256"/>
-      <c r="Q139" s="256"/>
-      <c r="R139" s="257"/>
+      <c r="A139" s="292"/>
+      <c r="B139" s="290"/>
+      <c r="C139" s="290"/>
+      <c r="D139" s="290"/>
+      <c r="E139" s="290"/>
+      <c r="F139" s="290"/>
+      <c r="G139" s="290"/>
+      <c r="H139" s="290"/>
+      <c r="I139" s="290"/>
+      <c r="J139" s="290"/>
+      <c r="K139" s="290"/>
+      <c r="L139" s="290"/>
+      <c r="M139" s="290"/>
+      <c r="N139" s="290"/>
+      <c r="O139" s="290"/>
+      <c r="P139" s="290"/>
+      <c r="Q139" s="290"/>
+      <c r="R139" s="291"/>
     </row>
     <row r="140" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="255"/>
-      <c r="B140" s="256"/>
-      <c r="C140" s="256"/>
-      <c r="D140" s="256"/>
-      <c r="E140" s="256"/>
-      <c r="F140" s="256"/>
-      <c r="G140" s="256"/>
-      <c r="H140" s="256"/>
-      <c r="I140" s="256"/>
-      <c r="J140" s="256"/>
-      <c r="K140" s="256"/>
-      <c r="L140" s="256"/>
-      <c r="M140" s="256"/>
-      <c r="N140" s="256"/>
-      <c r="O140" s="256"/>
-      <c r="P140" s="256"/>
-      <c r="Q140" s="256"/>
-      <c r="R140" s="257"/>
+      <c r="A140" s="292"/>
+      <c r="B140" s="290"/>
+      <c r="C140" s="290"/>
+      <c r="D140" s="290"/>
+      <c r="E140" s="290"/>
+      <c r="F140" s="290"/>
+      <c r="G140" s="290"/>
+      <c r="H140" s="290"/>
+      <c r="I140" s="290"/>
+      <c r="J140" s="290"/>
+      <c r="K140" s="290"/>
+      <c r="L140" s="290"/>
+      <c r="M140" s="290"/>
+      <c r="N140" s="290"/>
+      <c r="O140" s="290"/>
+      <c r="P140" s="290"/>
+      <c r="Q140" s="290"/>
+      <c r="R140" s="291"/>
     </row>
     <row r="141" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="255"/>
-      <c r="B141" s="256"/>
-      <c r="C141" s="256"/>
-      <c r="D141" s="256"/>
-      <c r="E141" s="256"/>
-      <c r="F141" s="256"/>
-      <c r="G141" s="256"/>
-      <c r="H141" s="256"/>
-      <c r="I141" s="256"/>
-      <c r="J141" s="256"/>
-      <c r="K141" s="256"/>
-      <c r="L141" s="256"/>
-      <c r="M141" s="256"/>
-      <c r="N141" s="256"/>
-      <c r="O141" s="256"/>
-      <c r="P141" s="256"/>
-      <c r="Q141" s="256"/>
-      <c r="R141" s="257"/>
+      <c r="A141" s="292"/>
+      <c r="B141" s="290"/>
+      <c r="C141" s="290"/>
+      <c r="D141" s="290"/>
+      <c r="E141" s="290"/>
+      <c r="F141" s="290"/>
+      <c r="G141" s="290"/>
+      <c r="H141" s="290"/>
+      <c r="I141" s="290"/>
+      <c r="J141" s="290"/>
+      <c r="K141" s="290"/>
+      <c r="L141" s="290"/>
+      <c r="M141" s="290"/>
+      <c r="N141" s="290"/>
+      <c r="O141" s="290"/>
+      <c r="P141" s="290"/>
+      <c r="Q141" s="290"/>
+      <c r="R141" s="291"/>
     </row>
     <row r="142" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="255"/>
-      <c r="B142" s="256"/>
-      <c r="C142" s="256"/>
-      <c r="D142" s="256"/>
-      <c r="E142" s="256"/>
-      <c r="F142" s="256"/>
-      <c r="G142" s="256"/>
-      <c r="H142" s="256"/>
-      <c r="I142" s="256"/>
-      <c r="J142" s="256"/>
-      <c r="K142" s="256"/>
-      <c r="L142" s="256"/>
-      <c r="M142" s="256"/>
-      <c r="N142" s="256"/>
-      <c r="O142" s="256"/>
-      <c r="P142" s="256"/>
-      <c r="Q142" s="256"/>
-      <c r="R142" s="257"/>
+      <c r="A142" s="292"/>
+      <c r="B142" s="290"/>
+      <c r="C142" s="290"/>
+      <c r="D142" s="290"/>
+      <c r="E142" s="290"/>
+      <c r="F142" s="290"/>
+      <c r="G142" s="290"/>
+      <c r="H142" s="290"/>
+      <c r="I142" s="290"/>
+      <c r="J142" s="290"/>
+      <c r="K142" s="290"/>
+      <c r="L142" s="290"/>
+      <c r="M142" s="290"/>
+      <c r="N142" s="290"/>
+      <c r="O142" s="290"/>
+      <c r="P142" s="290"/>
+      <c r="Q142" s="290"/>
+      <c r="R142" s="291"/>
     </row>
     <row r="143" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="255"/>
-      <c r="B143" s="256"/>
-      <c r="C143" s="256"/>
-      <c r="D143" s="256"/>
-      <c r="E143" s="256"/>
-      <c r="F143" s="256"/>
-      <c r="G143" s="256"/>
-      <c r="H143" s="256"/>
-      <c r="I143" s="256"/>
-      <c r="J143" s="256"/>
-      <c r="K143" s="256"/>
-      <c r="L143" s="256"/>
-      <c r="M143" s="256"/>
-      <c r="N143" s="256"/>
-      <c r="O143" s="256"/>
-      <c r="P143" s="256"/>
-      <c r="Q143" s="256"/>
-      <c r="R143" s="257"/>
+      <c r="A143" s="292"/>
+      <c r="B143" s="290"/>
+      <c r="C143" s="290"/>
+      <c r="D143" s="290"/>
+      <c r="E143" s="290"/>
+      <c r="F143" s="290"/>
+      <c r="G143" s="290"/>
+      <c r="H143" s="290"/>
+      <c r="I143" s="290"/>
+      <c r="J143" s="290"/>
+      <c r="K143" s="290"/>
+      <c r="L143" s="290"/>
+      <c r="M143" s="290"/>
+      <c r="N143" s="290"/>
+      <c r="O143" s="290"/>
+      <c r="P143" s="290"/>
+      <c r="Q143" s="290"/>
+      <c r="R143" s="291"/>
     </row>
     <row r="144" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="258"/>
-      <c r="B144" s="259"/>
-      <c r="C144" s="259"/>
-      <c r="D144" s="259"/>
-      <c r="E144" s="259"/>
-      <c r="F144" s="259"/>
-      <c r="G144" s="259"/>
-      <c r="H144" s="259"/>
-      <c r="I144" s="259"/>
-      <c r="J144" s="259"/>
-      <c r="K144" s="259"/>
-      <c r="L144" s="259"/>
-      <c r="M144" s="259"/>
-      <c r="N144" s="259"/>
-      <c r="O144" s="259"/>
-      <c r="P144" s="259"/>
-      <c r="Q144" s="259"/>
-      <c r="R144" s="260"/>
+      <c r="A144" s="293"/>
+      <c r="B144" s="294"/>
+      <c r="C144" s="294"/>
+      <c r="D144" s="294"/>
+      <c r="E144" s="294"/>
+      <c r="F144" s="294"/>
+      <c r="G144" s="294"/>
+      <c r="H144" s="294"/>
+      <c r="I144" s="294"/>
+      <c r="J144" s="294"/>
+      <c r="K144" s="294"/>
+      <c r="L144" s="294"/>
+      <c r="M144" s="294"/>
+      <c r="N144" s="294"/>
+      <c r="O144" s="294"/>
+      <c r="P144" s="294"/>
+      <c r="Q144" s="294"/>
+      <c r="R144" s="295"/>
     </row>
     <row r="145" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
@@ -8809,26 +8805,26 @@
       <c r="R146" s="4"/>
     </row>
     <row r="147" spans="1:23" s="2" customFormat="1" ht="30.75" x14ac:dyDescent="0.15">
-      <c r="A147" s="261" t="s">
+      <c r="A147" s="296" t="s">
         <v>68</v>
       </c>
-      <c r="B147" s="262"/>
-      <c r="C147" s="262"/>
-      <c r="D147" s="262"/>
-      <c r="E147" s="262"/>
-      <c r="F147" s="262"/>
-      <c r="G147" s="262"/>
-      <c r="H147" s="262"/>
-      <c r="I147" s="262"/>
-      <c r="J147" s="262"/>
-      <c r="K147" s="262"/>
-      <c r="L147" s="262"/>
-      <c r="M147" s="262"/>
-      <c r="N147" s="262"/>
-      <c r="O147" s="262"/>
-      <c r="P147" s="262"/>
-      <c r="Q147" s="262"/>
-      <c r="R147" s="262"/>
+      <c r="B147" s="297"/>
+      <c r="C147" s="297"/>
+      <c r="D147" s="297"/>
+      <c r="E147" s="297"/>
+      <c r="F147" s="297"/>
+      <c r="G147" s="297"/>
+      <c r="H147" s="297"/>
+      <c r="I147" s="297"/>
+      <c r="J147" s="297"/>
+      <c r="K147" s="297"/>
+      <c r="L147" s="297"/>
+      <c r="M147" s="297"/>
+      <c r="N147" s="297"/>
+      <c r="O147" s="297"/>
+      <c r="P147" s="297"/>
+      <c r="Q147" s="297"/>
+      <c r="R147" s="297"/>
     </row>
     <row r="148" spans="1:23" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="16"/>
@@ -8851,26 +8847,26 @@
       <c r="R148" s="16"/>
     </row>
     <row r="149" spans="1:23" s="116" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="197" t="s">
+      <c r="A149" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="B149" s="208"/>
-      <c r="C149" s="208"/>
-      <c r="D149" s="208"/>
-      <c r="E149" s="208"/>
-      <c r="F149" s="208"/>
-      <c r="G149" s="208"/>
-      <c r="H149" s="208"/>
-      <c r="I149" s="208"/>
-      <c r="J149" s="208"/>
-      <c r="K149" s="208"/>
-      <c r="L149" s="208"/>
-      <c r="M149" s="208"/>
-      <c r="N149" s="208"/>
-      <c r="O149" s="208"/>
-      <c r="P149" s="208"/>
-      <c r="Q149" s="208"/>
-      <c r="R149" s="208"/>
+      <c r="B149" s="235"/>
+      <c r="C149" s="235"/>
+      <c r="D149" s="235"/>
+      <c r="E149" s="235"/>
+      <c r="F149" s="235"/>
+      <c r="G149" s="235"/>
+      <c r="H149" s="235"/>
+      <c r="I149" s="235"/>
+      <c r="J149" s="235"/>
+      <c r="K149" s="235"/>
+      <c r="L149" s="235"/>
+      <c r="M149" s="235"/>
+      <c r="N149" s="235"/>
+      <c r="O149" s="235"/>
+      <c r="P149" s="235"/>
+      <c r="Q149" s="235"/>
+      <c r="R149" s="235"/>
     </row>
     <row r="150" spans="1:23" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="117"/>
@@ -9049,11 +9045,11 @@
       <c r="W157" s="118"/>
     </row>
     <row r="158" spans="1:23" s="129" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="263" t="s">
+      <c r="A158" s="298" t="s">
         <v>75</v>
       </c>
-      <c r="B158" s="264"/>
-      <c r="C158" s="265"/>
+      <c r="B158" s="299"/>
+      <c r="C158" s="300"/>
       <c r="D158" s="125"/>
       <c r="E158" s="126"/>
       <c r="F158" s="126"/>
@@ -9076,23 +9072,23 @@
       <c r="W158" s="128"/>
     </row>
     <row r="159" spans="1:23" s="129" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="263"/>
-      <c r="B159" s="264"/>
-      <c r="C159" s="265"/>
+      <c r="A159" s="298"/>
+      <c r="B159" s="299"/>
+      <c r="C159" s="300"/>
       <c r="D159" s="130"/>
-      <c r="E159" s="269" t="s">
+      <c r="E159" s="304" t="s">
         <v>76</v>
       </c>
-      <c r="F159" s="269"/>
-      <c r="G159" s="269"/>
-      <c r="H159" s="269"/>
+      <c r="F159" s="304"/>
+      <c r="G159" s="304"/>
+      <c r="H159" s="304"/>
       <c r="J159" s="131"/>
-      <c r="K159" s="269" t="s">
+      <c r="K159" s="304" t="s">
         <v>77</v>
       </c>
-      <c r="L159" s="269"/>
-      <c r="M159" s="269"/>
-      <c r="N159" s="269"/>
+      <c r="L159" s="304"/>
+      <c r="M159" s="304"/>
+      <c r="N159" s="304"/>
       <c r="O159" s="131"/>
       <c r="P159" s="132"/>
       <c r="Q159" s="132"/>
@@ -9104,9 +9100,9 @@
       <c r="W159" s="128"/>
     </row>
     <row r="160" spans="1:23" s="129" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="266"/>
-      <c r="B160" s="267"/>
-      <c r="C160" s="268"/>
+      <c r="A160" s="301"/>
+      <c r="B160" s="302"/>
+      <c r="C160" s="303"/>
       <c r="D160" s="134"/>
       <c r="E160" s="135"/>
       <c r="F160" s="135"/>
@@ -9174,26 +9170,26 @@
       <c r="R162" s="4"/>
     </row>
     <row r="163" spans="1:23" ht="30.75" x14ac:dyDescent="0.15">
-      <c r="A163" s="218" t="s">
+      <c r="A163" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="B163" s="218"/>
-      <c r="C163" s="218"/>
-      <c r="D163" s="218"/>
-      <c r="E163" s="218"/>
-      <c r="F163" s="218"/>
-      <c r="G163" s="218"/>
-      <c r="H163" s="218"/>
-      <c r="I163" s="218"/>
-      <c r="J163" s="218"/>
-      <c r="K163" s="218"/>
-      <c r="L163" s="218"/>
-      <c r="M163" s="218"/>
-      <c r="N163" s="218"/>
-      <c r="O163" s="218"/>
-      <c r="P163" s="218"/>
-      <c r="Q163" s="218"/>
-      <c r="R163" s="218"/>
+      <c r="B163" s="244"/>
+      <c r="C163" s="244"/>
+      <c r="D163" s="244"/>
+      <c r="E163" s="244"/>
+      <c r="F163" s="244"/>
+      <c r="G163" s="244"/>
+      <c r="H163" s="244"/>
+      <c r="I163" s="244"/>
+      <c r="J163" s="244"/>
+      <c r="K163" s="244"/>
+      <c r="L163" s="244"/>
+      <c r="M163" s="244"/>
+      <c r="N163" s="244"/>
+      <c r="O163" s="244"/>
+      <c r="P163" s="244"/>
+      <c r="Q163" s="244"/>
+      <c r="R163" s="244"/>
       <c r="S163" s="77"/>
       <c r="T163" s="77"/>
       <c r="U163" s="77"/>
@@ -9201,26 +9197,26 @@
       <c r="W163" s="77"/>
     </row>
     <row r="164" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="219" t="s">
+      <c r="A164" s="245" t="s">
         <v>70</v>
       </c>
-      <c r="B164" s="219"/>
-      <c r="C164" s="219"/>
-      <c r="D164" s="219"/>
-      <c r="E164" s="219"/>
-      <c r="F164" s="219"/>
-      <c r="G164" s="219"/>
-      <c r="H164" s="219"/>
-      <c r="I164" s="219"/>
-      <c r="J164" s="219"/>
-      <c r="K164" s="219"/>
-      <c r="L164" s="219"/>
-      <c r="M164" s="219"/>
-      <c r="N164" s="219"/>
-      <c r="O164" s="219"/>
-      <c r="P164" s="219"/>
-      <c r="Q164" s="219"/>
-      <c r="R164" s="219"/>
+      <c r="B164" s="245"/>
+      <c r="C164" s="245"/>
+      <c r="D164" s="245"/>
+      <c r="E164" s="245"/>
+      <c r="F164" s="245"/>
+      <c r="G164" s="245"/>
+      <c r="H164" s="245"/>
+      <c r="I164" s="245"/>
+      <c r="J164" s="245"/>
+      <c r="K164" s="245"/>
+      <c r="L164" s="245"/>
+      <c r="M164" s="245"/>
+      <c r="N164" s="245"/>
+      <c r="O164" s="245"/>
+      <c r="P164" s="245"/>
+      <c r="Q164" s="245"/>
+      <c r="R164" s="245"/>
       <c r="S164" s="78"/>
       <c r="T164" s="78"/>
       <c r="U164" s="78"/>
@@ -9330,26 +9326,26 @@
       <c r="W168" s="81"/>
     </row>
     <row r="169" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="232" t="s">
+      <c r="A169" s="258" t="s">
         <v>57</v>
       </c>
-      <c r="B169" s="233"/>
-      <c r="C169" s="233"/>
-      <c r="D169" s="210"/>
-      <c r="E169" s="210"/>
-      <c r="F169" s="210"/>
-      <c r="G169" s="210"/>
-      <c r="H169" s="210"/>
-      <c r="I169" s="210"/>
-      <c r="J169" s="210"/>
-      <c r="K169" s="210"/>
-      <c r="L169" s="210"/>
-      <c r="M169" s="210"/>
-      <c r="N169" s="210"/>
-      <c r="O169" s="210"/>
-      <c r="P169" s="210"/>
-      <c r="Q169" s="210"/>
-      <c r="R169" s="236"/>
+      <c r="B169" s="259"/>
+      <c r="C169" s="259"/>
+      <c r="D169" s="176"/>
+      <c r="E169" s="176"/>
+      <c r="F169" s="176"/>
+      <c r="G169" s="176"/>
+      <c r="H169" s="176"/>
+      <c r="I169" s="176"/>
+      <c r="J169" s="176"/>
+      <c r="K169" s="176"/>
+      <c r="L169" s="176"/>
+      <c r="M169" s="176"/>
+      <c r="N169" s="176"/>
+      <c r="O169" s="176"/>
+      <c r="P169" s="176"/>
+      <c r="Q169" s="176"/>
+      <c r="R169" s="262"/>
       <c r="S169" s="89"/>
       <c r="T169" s="89"/>
       <c r="U169" s="89"/>
@@ -9357,24 +9353,24 @@
       <c r="W169" s="90"/>
     </row>
     <row r="170" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="234"/>
-      <c r="B170" s="235"/>
-      <c r="C170" s="235"/>
-      <c r="D170" s="237"/>
-      <c r="E170" s="237"/>
-      <c r="F170" s="237"/>
-      <c r="G170" s="237"/>
-      <c r="H170" s="237"/>
-      <c r="I170" s="237"/>
-      <c r="J170" s="237"/>
-      <c r="K170" s="237"/>
-      <c r="L170" s="237"/>
-      <c r="M170" s="237"/>
-      <c r="N170" s="237"/>
-      <c r="O170" s="237"/>
-      <c r="P170" s="237"/>
-      <c r="Q170" s="237"/>
-      <c r="R170" s="238"/>
+      <c r="A170" s="260"/>
+      <c r="B170" s="261"/>
+      <c r="C170" s="261"/>
+      <c r="D170" s="191"/>
+      <c r="E170" s="191"/>
+      <c r="F170" s="191"/>
+      <c r="G170" s="191"/>
+      <c r="H170" s="191"/>
+      <c r="I170" s="191"/>
+      <c r="J170" s="191"/>
+      <c r="K170" s="191"/>
+      <c r="L170" s="191"/>
+      <c r="M170" s="191"/>
+      <c r="N170" s="191"/>
+      <c r="O170" s="191"/>
+      <c r="P170" s="191"/>
+      <c r="Q170" s="191"/>
+      <c r="R170" s="263"/>
       <c r="S170" s="81"/>
       <c r="T170" s="81"/>
       <c r="U170" s="81"/>
@@ -9382,11 +9378,11 @@
       <c r="W170" s="81"/>
     </row>
     <row r="171" spans="1:23" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A171" s="220" t="s">
+      <c r="A171" s="246" t="s">
         <v>58</v>
       </c>
-      <c r="B171" s="221"/>
-      <c r="C171" s="222"/>
+      <c r="B171" s="247"/>
+      <c r="C171" s="248"/>
       <c r="D171" s="26" t="s">
         <v>5</v>
       </c>
@@ -9413,24 +9409,24 @@
       <c r="W171" s="81"/>
     </row>
     <row r="172" spans="1:23" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A172" s="223"/>
-      <c r="B172" s="224"/>
-      <c r="C172" s="225"/>
-      <c r="D172" s="250"/>
-      <c r="E172" s="251"/>
-      <c r="F172" s="251"/>
-      <c r="G172" s="251"/>
-      <c r="H172" s="251"/>
-      <c r="I172" s="251"/>
-      <c r="J172" s="251"/>
-      <c r="K172" s="251"/>
-      <c r="L172" s="251"/>
-      <c r="M172" s="251"/>
-      <c r="N172" s="251"/>
-      <c r="O172" s="251"/>
-      <c r="P172" s="251"/>
-      <c r="Q172" s="251"/>
-      <c r="R172" s="252"/>
+      <c r="A172" s="249"/>
+      <c r="B172" s="250"/>
+      <c r="C172" s="251"/>
+      <c r="D172" s="283"/>
+      <c r="E172" s="284"/>
+      <c r="F172" s="284"/>
+      <c r="G172" s="284"/>
+      <c r="H172" s="284"/>
+      <c r="I172" s="284"/>
+      <c r="J172" s="284"/>
+      <c r="K172" s="284"/>
+      <c r="L172" s="284"/>
+      <c r="M172" s="284"/>
+      <c r="N172" s="284"/>
+      <c r="O172" s="284"/>
+      <c r="P172" s="284"/>
+      <c r="Q172" s="284"/>
+      <c r="R172" s="285"/>
       <c r="S172" s="81"/>
       <c r="T172" s="81"/>
       <c r="U172" s="81"/>
@@ -9438,24 +9434,24 @@
       <c r="W172" s="81"/>
     </row>
     <row r="173" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="223"/>
-      <c r="B173" s="224"/>
-      <c r="C173" s="225"/>
-      <c r="D173" s="250"/>
-      <c r="E173" s="251"/>
-      <c r="F173" s="251"/>
-      <c r="G173" s="251"/>
-      <c r="H173" s="251"/>
-      <c r="I173" s="251"/>
-      <c r="J173" s="251"/>
-      <c r="K173" s="251"/>
-      <c r="L173" s="251"/>
-      <c r="M173" s="251"/>
-      <c r="N173" s="251"/>
-      <c r="O173" s="251"/>
-      <c r="P173" s="251"/>
-      <c r="Q173" s="251"/>
-      <c r="R173" s="252"/>
+      <c r="A173" s="249"/>
+      <c r="B173" s="250"/>
+      <c r="C173" s="251"/>
+      <c r="D173" s="283"/>
+      <c r="E173" s="284"/>
+      <c r="F173" s="284"/>
+      <c r="G173" s="284"/>
+      <c r="H173" s="284"/>
+      <c r="I173" s="284"/>
+      <c r="J173" s="284"/>
+      <c r="K173" s="284"/>
+      <c r="L173" s="284"/>
+      <c r="M173" s="284"/>
+      <c r="N173" s="284"/>
+      <c r="O173" s="284"/>
+      <c r="P173" s="284"/>
+      <c r="Q173" s="284"/>
+      <c r="R173" s="285"/>
       <c r="S173" s="89"/>
       <c r="T173" s="89"/>
       <c r="U173" s="89"/>
@@ -9463,24 +9459,24 @@
       <c r="W173" s="90"/>
     </row>
     <row r="174" spans="1:23" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A174" s="223"/>
-      <c r="B174" s="224"/>
-      <c r="C174" s="225"/>
-      <c r="D174" s="250"/>
-      <c r="E174" s="251"/>
-      <c r="F174" s="251"/>
-      <c r="G174" s="251"/>
-      <c r="H174" s="251"/>
-      <c r="I174" s="251"/>
-      <c r="J174" s="251"/>
-      <c r="K174" s="251"/>
-      <c r="L174" s="251"/>
-      <c r="M174" s="251"/>
-      <c r="N174" s="251"/>
-      <c r="O174" s="251"/>
-      <c r="P174" s="251"/>
-      <c r="Q174" s="251"/>
-      <c r="R174" s="252"/>
+      <c r="A174" s="249"/>
+      <c r="B174" s="250"/>
+      <c r="C174" s="251"/>
+      <c r="D174" s="283"/>
+      <c r="E174" s="284"/>
+      <c r="F174" s="284"/>
+      <c r="G174" s="284"/>
+      <c r="H174" s="284"/>
+      <c r="I174" s="284"/>
+      <c r="J174" s="284"/>
+      <c r="K174" s="284"/>
+      <c r="L174" s="284"/>
+      <c r="M174" s="284"/>
+      <c r="N174" s="284"/>
+      <c r="O174" s="284"/>
+      <c r="P174" s="284"/>
+      <c r="Q174" s="284"/>
+      <c r="R174" s="285"/>
       <c r="S174" s="81"/>
       <c r="T174" s="81"/>
       <c r="U174" s="81"/>
@@ -9488,24 +9484,24 @@
       <c r="W174" s="81"/>
     </row>
     <row r="175" spans="1:23" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A175" s="226"/>
-      <c r="B175" s="227"/>
-      <c r="C175" s="228"/>
-      <c r="D175" s="250"/>
-      <c r="E175" s="251"/>
-      <c r="F175" s="251"/>
-      <c r="G175" s="251"/>
-      <c r="H175" s="251"/>
-      <c r="I175" s="251"/>
-      <c r="J175" s="251"/>
-      <c r="K175" s="251"/>
-      <c r="L175" s="251"/>
-      <c r="M175" s="251"/>
-      <c r="N175" s="251"/>
-      <c r="O175" s="251"/>
-      <c r="P175" s="251"/>
-      <c r="Q175" s="251"/>
-      <c r="R175" s="252"/>
+      <c r="A175" s="252"/>
+      <c r="B175" s="253"/>
+      <c r="C175" s="254"/>
+      <c r="D175" s="283"/>
+      <c r="E175" s="284"/>
+      <c r="F175" s="284"/>
+      <c r="G175" s="284"/>
+      <c r="H175" s="284"/>
+      <c r="I175" s="284"/>
+      <c r="J175" s="284"/>
+      <c r="K175" s="284"/>
+      <c r="L175" s="284"/>
+      <c r="M175" s="284"/>
+      <c r="N175" s="284"/>
+      <c r="O175" s="284"/>
+      <c r="P175" s="284"/>
+      <c r="Q175" s="284"/>
+      <c r="R175" s="285"/>
       <c r="S175" s="81"/>
       <c r="T175" s="81"/>
       <c r="U175" s="81"/>
@@ -9513,18 +9509,18 @@
       <c r="W175" s="81"/>
     </row>
     <row r="176" spans="1:23" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="229"/>
-      <c r="B176" s="230"/>
-      <c r="C176" s="231"/>
-      <c r="D176" s="253" t="s">
+      <c r="A176" s="255"/>
+      <c r="B176" s="256"/>
+      <c r="C176" s="257"/>
+      <c r="D176" s="286" t="s">
         <v>3</v>
       </c>
-      <c r="E176" s="254"/>
-      <c r="F176" s="143"/>
-      <c r="G176" s="143"/>
-      <c r="H176" s="143"/>
-      <c r="I176" s="143"/>
-      <c r="J176" s="143"/>
+      <c r="E176" s="287"/>
+      <c r="F176" s="144"/>
+      <c r="G176" s="144"/>
+      <c r="H176" s="144"/>
+      <c r="I176" s="144"/>
+      <c r="J176" s="144"/>
       <c r="K176" s="91"/>
       <c r="L176" s="91"/>
       <c r="M176" s="91"/>
@@ -9576,12 +9572,12 @@
       <c r="L179" s="101"/>
       <c r="M179" s="101"/>
       <c r="N179" s="102"/>
-      <c r="O179" s="217"/>
-      <c r="P179" s="217"/>
+      <c r="O179" s="243"/>
+      <c r="P179" s="243"/>
       <c r="Q179" s="101"/>
       <c r="R179" s="90"/>
-      <c r="S179" s="217"/>
-      <c r="T179" s="217"/>
+      <c r="S179" s="243"/>
+      <c r="T179" s="243"/>
       <c r="U179" s="90"/>
       <c r="V179" s="90"/>
       <c r="W179" s="99"/>
